--- a/src/assets/excel/appData.xlsx
+++ b/src/assets/excel/appData.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esang\Documents\work\devel\scboard24\scboard24\src\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB4MaPc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA1E1BB-B9E9-4758-BB78-A0609A969090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14910" windowHeight="8700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="388">
   <si>
     <t>name</t>
   </si>
@@ -749,9 +748,6 @@
   </si>
   <si>
     <t>totmathoct</t>
-  </si>
-  <si>
-    <t>강효원</t>
   </si>
   <si>
     <t>고유빈</t>
@@ -1221,7 +1217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1590,7 +1586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EF56"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -9585,11 +9581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CP135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CP134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="BW29" sqref="BW29"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="BY16" sqref="BY16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9910,49 +9906,34 @@
         <v>234</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="AF2" s="1">
-        <v>32.5</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>32.5</v>
+        <v>27.5</v>
       </c>
       <c r="AH2" s="1">
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
         <v>375</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:94" x14ac:dyDescent="0.3">
@@ -9960,134 +9941,203 @@
         <v>235</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>359</v>
+      <c r="M3" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2.5</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12.5</v>
       </c>
       <c r="AF3" s="1">
-        <v>27.5</v>
+        <v>30</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>37.5</v>
       </c>
       <c r="AH3" s="1">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>47.5</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>77.5</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>36</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>24</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>4</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>36</v>
+      </c>
+      <c r="CI3" s="1">
+        <v>24</v>
+      </c>
+      <c r="CJ3" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>356</v>
+      <c r="E4" s="1">
+        <v>7.5</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2.5</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF4" s="1">
+        <v>358</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>15</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AS4" s="1">
         <v>30</v>
       </c>
-      <c r="AG4" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>40</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>380</v>
+      <c r="AZ4" s="1">
+        <v>28</v>
       </c>
       <c r="BA4" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="BB4" s="1">
-        <v>24</v>
+        <v>84</v>
+      </c>
+      <c r="CG4" s="1">
+        <v>28</v>
       </c>
       <c r="CH4" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="CI4" s="1">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>42.5</v>
       </c>
       <c r="AH5" s="1">
-        <v>27.5</v>
+        <v>35</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>28</v>
-      </c>
-      <c r="BA5" s="1">
-        <v>20</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>84</v>
-      </c>
-      <c r="CG5" s="1">
-        <v>28</v>
-      </c>
-      <c r="CH5" s="1">
-        <v>20</v>
-      </c>
-      <c r="CI5" s="1">
-        <v>84</v>
+        <v>376</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.3">
@@ -10095,84 +10145,84 @@
         <v>238</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>12.5</v>
       </c>
       <c r="AF6" s="1">
-        <v>35</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>42.5</v>
+        <v>32.5</v>
       </c>
       <c r="AH6" s="1">
         <v>35</v>
       </c>
+      <c r="AI6" s="1">
+        <v>27.5</v>
+      </c>
       <c r="AP6" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>361</v>
+      <c r="O7" s="1">
+        <v>5</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>32.5</v>
+        <v>360</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>10</v>
       </c>
       <c r="AH7" s="1">
-        <v>35</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>365</v>
+        <v>10</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>17.5</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>371</v>
+        <v>357</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>37.5</v>
       </c>
     </row>
     <row r="8" spans="1:94" x14ac:dyDescent="0.3">
@@ -10180,111 +10230,171 @@
         <v>240</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH8" s="1">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>355</v>
-      </c>
     </row>
     <row r="10" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>242</v>
+        <v>352</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>15</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>16</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>28</v>
+      </c>
+      <c r="CG10" s="1">
+        <v>16</v>
+      </c>
+      <c r="CI10" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>353</v>
+        <v>242</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="W11" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AG11" s="1">
-        <v>10</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>15</v>
+        <v>42.5</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ11" s="1">
-        <v>16</v>
-      </c>
-      <c r="BB11" s="1">
-        <v>28</v>
-      </c>
-      <c r="CG11" s="1">
-        <v>16</v>
-      </c>
-      <c r="CI11" s="1">
-        <v>28</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E12" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="O12" s="1">
+        <v>5</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>362</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>30</v>
       </c>
       <c r="AG12" s="1">
-        <v>42.5</v>
+        <v>37.5</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.3">
@@ -10292,96 +10402,123 @@
         <v>244</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
+      </c>
+      <c r="E13" s="1">
+        <v>17.5</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>361</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>10</v>
       </c>
       <c r="AF13" s="1">
         <v>30</v>
       </c>
-      <c r="AG13" s="1">
-        <v>37.5</v>
-      </c>
       <c r="AH13" s="1">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>32.5</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AQ13" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>60</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>40</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>32</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>16</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>28</v>
+      </c>
+      <c r="CG13" s="1">
+        <v>40</v>
+      </c>
+      <c r="CI13" s="1">
+        <v>32</v>
+      </c>
+      <c r="CJ13" s="1">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>30</v>
-      </c>
-      <c r="AH14" s="1">
+      <c r="Y14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="AI14" s="1">
         <v>25</v>
       </c>
-      <c r="AP14" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>367</v>
+      <c r="AQ14" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>40</v>
       </c>
       <c r="AZ14" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="BB14" s="1">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>24</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>24</v>
       </c>
       <c r="CG14" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="CI14" s="1">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="CJ14" s="1">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.3">
@@ -10389,2708 +10526,3794 @@
         <v>246</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O15" s="1">
+        <v>5</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="X15" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>2.5</v>
+      </c>
       <c r="AG15" s="1">
-        <v>17.5</v>
+        <v>27.5</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>22.5</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>35</v>
       </c>
       <c r="AZ15" s="1">
-        <v>48</v>
-      </c>
-      <c r="BB15" s="1">
-        <v>52</v>
+        <v>24</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>28</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>16</v>
       </c>
       <c r="CG15" s="1">
-        <v>48</v>
-      </c>
-      <c r="CI15" s="1">
-        <v>52</v>
+        <v>24</v>
+      </c>
+      <c r="CJ15" s="1">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="W16" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ16" s="1">
-        <v>24</v>
-      </c>
-      <c r="CG16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>357</v>
+      <c r="M17" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2.5</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>356</v>
       </c>
+      <c r="W17" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>7.5</v>
+      </c>
       <c r="AF17" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="AG17" s="1">
         <v>32.5</v>
       </c>
+      <c r="AH17" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>35</v>
+      </c>
       <c r="AP17" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="18" spans="1:87" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>72</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>72</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>80</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>56</v>
+      </c>
+      <c r="BJ17" s="1">
+        <v>44</v>
+      </c>
+      <c r="CG17" s="1">
+        <v>72</v>
+      </c>
+      <c r="CH17" s="1">
+        <v>72</v>
+      </c>
+      <c r="CI17" s="1">
+        <v>80</v>
+      </c>
+      <c r="CJ17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>32.5</v>
+        <v>358</v>
       </c>
       <c r="AH18" s="1">
-        <v>20</v>
-      </c>
-      <c r="AP18" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="AQ18" s="1" t="s">
-        <v>375</v>
+        <v>10</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AZ18" s="1">
-        <v>72</v>
-      </c>
-      <c r="BA18" s="1">
-        <v>72</v>
-      </c>
-      <c r="BB18" s="1">
-        <v>80</v>
-      </c>
-      <c r="CG18" s="1">
-        <v>72</v>
-      </c>
-      <c r="CH18" s="1">
-        <v>72</v>
-      </c>
-      <c r="CI18" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:87" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="E19" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="O19" s="1">
+        <v>5</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>35</v>
       </c>
       <c r="AH19" s="1">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="AR19" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="20" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="AS19" s="1">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
+      </c>
+      <c r="E20" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>10</v>
       </c>
       <c r="AG20" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AH20" s="1">
-        <v>30</v>
+        <v>17.5</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="21" spans="1:87" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="W21" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF21" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG21" s="1">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="AH21" s="1">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AR21" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="22" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="N22" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="O22" s="1">
+        <v>7.5</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="Y22" s="1">
+        <v>2.5</v>
+      </c>
       <c r="AF22" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AG22" s="1">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="AH22" s="1">
-        <v>20</v>
+        <v>22.5</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>40</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AQ22" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AR22" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AR22" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="AS22" s="1">
+        <v>60</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>56</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>92</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>96</v>
+      </c>
+      <c r="BC22" s="1">
+        <v>52</v>
+      </c>
+      <c r="BJ22" s="1">
+        <v>44</v>
+      </c>
+      <c r="CG22" s="1">
+        <v>56</v>
+      </c>
+      <c r="CH22" s="1">
+        <v>92</v>
+      </c>
+      <c r="CI22" s="1">
+        <v>96</v>
+      </c>
+      <c r="CJ22" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C23" s="1" t="s">
         <v>356</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7.5</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M23" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O23" s="1">
+        <v>10</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="X23" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>5</v>
       </c>
       <c r="AF23" s="1">
-        <v>25</v>
-      </c>
-      <c r="AG23" s="1">
-        <v>25</v>
+        <v>27.5</v>
       </c>
       <c r="AH23" s="1">
         <v>22.5</v>
       </c>
+      <c r="AI23" s="1">
+        <v>35</v>
+      </c>
       <c r="AP23" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AQ23" s="1" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AZ23" s="1">
-        <v>56</v>
-      </c>
-      <c r="BA23" s="1">
-        <v>92</v>
-      </c>
-      <c r="BB23" s="1">
-        <v>96</v>
-      </c>
-      <c r="CG23" s="1">
-        <v>56</v>
-      </c>
-      <c r="CH23" s="1">
-        <v>92</v>
-      </c>
-      <c r="CI23" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:87" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>15</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>15</v>
+      </c>
+      <c r="AR24" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>30</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>16</v>
+      </c>
+      <c r="BC24" s="1">
+        <v>16</v>
+      </c>
+      <c r="BJ24" s="1">
+        <v>20</v>
+      </c>
+      <c r="CI24" s="1">
+        <v>16</v>
+      </c>
+      <c r="CJ24" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="AP24" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AR24" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="25" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.5</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>361</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>5</v>
       </c>
       <c r="AH25" s="1">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>30</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="BB25" s="1">
-        <v>16</v>
-      </c>
-      <c r="CI25" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:87" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
+      </c>
+      <c r="E26" s="1">
+        <v>15</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W26" s="1" t="s">
         <v>362</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>17.5</v>
       </c>
       <c r="AH26" s="1">
-        <v>20</v>
+        <v>7.5</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:87" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>357</v>
+      <c r="E27" s="1">
+        <v>7.5</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2.5</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AG27" s="1">
-        <v>17.5</v>
+        <v>358</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>5</v>
       </c>
       <c r="AH27" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="AQ27" s="1" t="s">
-        <v>377</v>
+        <v>15</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>12.5</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="28" spans="1:87" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="BB27" s="1">
+        <v>32</v>
+      </c>
+      <c r="CI27" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="C28" s="1" t="s">
+        <v>359</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>357</v>
       </c>
+      <c r="E28" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="N28" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="O28" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>37.5</v>
       </c>
       <c r="AH28" s="1">
-        <v>15</v>
+        <v>27.5</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BB28" s="1">
-        <v>32</v>
-      </c>
-      <c r="CI28" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:87" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>362</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
+      </c>
+      <c r="O29" s="1">
+        <v>5</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>30</v>
       </c>
       <c r="AG29" s="1">
-        <v>37.5</v>
+        <v>22.5</v>
       </c>
       <c r="AH29" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AI29" s="1">
         <v>27.5</v>
       </c>
+      <c r="AP29" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AQ29" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="30" spans="1:87" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
+      </c>
+      <c r="E30" s="1">
+        <v>10</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="O30" s="1">
+        <v>5</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF30" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG30" s="1">
-        <v>22.5</v>
+        <v>361</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>10</v>
       </c>
       <c r="AH30" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="AP30" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AQ30" s="1" t="s">
-        <v>377</v>
+        <v>25</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>45</v>
       </c>
       <c r="AR30" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="31" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="AS30" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>260</v>
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>359</v>
       </c>
+      <c r="E31" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="N31" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="O31" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>37.5</v>
       </c>
       <c r="AH31" s="1">
-        <v>25</v>
+        <v>37.5</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:87" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E32" s="1">
+        <v>15</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="N32" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
+      </c>
+      <c r="O32" s="1">
+        <v>7.5</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>7.5</v>
       </c>
       <c r="AF32" s="1">
-        <v>37.5</v>
+        <v>42.5</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>42.5</v>
       </c>
       <c r="AH32" s="1">
-        <v>37.5</v>
+        <v>40</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>45</v>
       </c>
       <c r="AP32" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:87" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>75</v>
+      </c>
+      <c r="AZ32" s="1">
+        <v>12</v>
+      </c>
+      <c r="BA32" s="1">
+        <v>4</v>
+      </c>
+      <c r="CG32" s="1">
+        <v>12</v>
+      </c>
+      <c r="CH32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E33" s="1">
+        <v>10</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>15</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>35</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF33" s="1">
-        <v>42.5</v>
-      </c>
-      <c r="AG33" s="1">
-        <v>42.5</v>
-      </c>
-      <c r="AH33" s="1">
-        <v>40</v>
-      </c>
-      <c r="AP33" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AQ33" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="AR33" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AZ33" s="1">
-        <v>12</v>
-      </c>
-      <c r="BA33" s="1">
-        <v>4</v>
-      </c>
-      <c r="CG33" s="1">
-        <v>12</v>
-      </c>
-      <c r="CH33" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:87" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
+      </c>
+      <c r="E34" s="1">
+        <v>12.5</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="O34" s="1">
+        <v>2.5</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>7.5</v>
       </c>
       <c r="AG34" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="AH34" s="1">
         <v>20</v>
       </c>
-      <c r="AH34" s="1">
-        <v>15</v>
+      <c r="AI34" s="1">
+        <v>35</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="35" spans="1:87" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>363</v>
+      <c r="B35" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="E35" s="1">
+        <v>15</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="O35" s="1">
+        <v>5</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AG35" s="1">
-        <v>22.5</v>
+        <v>358</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>30</v>
       </c>
       <c r="AH35" s="1">
-        <v>20</v>
-      </c>
-      <c r="AQ35" s="1" t="s">
-        <v>369</v>
+        <v>17.5</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>30</v>
+      </c>
+      <c r="AP35" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="AR35" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="36" spans="1:87" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>60</v>
+      </c>
+      <c r="BC35" s="1">
+        <v>36</v>
+      </c>
+      <c r="BJ35" s="1">
+        <v>32</v>
+      </c>
+      <c r="CJ35" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="D36" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="N36" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF36" s="1">
-        <v>30</v>
+        <v>358</v>
       </c>
       <c r="AH36" s="1">
         <v>17.5</v>
       </c>
-      <c r="AP36" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="AR36" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:87" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>265</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
+      </c>
+      <c r="E37" s="1">
+        <v>12.5</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="O37" s="1">
+        <v>2.5</v>
+      </c>
       <c r="X37" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>12.5</v>
       </c>
       <c r="AH37" s="1">
-        <v>17.5</v>
+        <v>27.5</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>30</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="38" spans="1:87" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="BB37" s="1">
+        <v>48</v>
+      </c>
+      <c r="BC37" s="1">
+        <v>16</v>
+      </c>
+      <c r="BJ37" s="1">
+        <v>28</v>
+      </c>
+      <c r="CI37" s="1">
+        <v>48</v>
+      </c>
+      <c r="CJ37" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AH38" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="AR38" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="BB38" s="1">
-        <v>48</v>
-      </c>
-      <c r="CI38" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:87" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="40" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="D39" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="AR39" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AH40" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="AR40" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="41" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="BB41" s="1">
+        <v>44</v>
+      </c>
+      <c r="CI41" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="BB42" s="1">
-        <v>44</v>
-      </c>
-      <c r="CI42" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="AQ42" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="W43" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E43" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O43" s="1">
+        <v>5</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X43" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AG43" s="1">
+      <c r="Y43" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AF43" s="1">
         <v>32.5</v>
       </c>
-      <c r="AQ43" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="44" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="AH43" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP43" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR43" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>45</v>
+      </c>
+      <c r="AZ43" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB43" s="1">
+        <v>44</v>
+      </c>
+      <c r="BC43" s="1">
+        <v>28</v>
+      </c>
+      <c r="BJ43" s="1">
+        <v>28</v>
+      </c>
+      <c r="CG43" s="1">
+        <v>52</v>
+      </c>
+      <c r="CI43" s="1">
+        <v>44</v>
+      </c>
+      <c r="CJ43" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E44" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O44" s="1">
+        <v>5</v>
+      </c>
+      <c r="X44" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>32.5</v>
+      <c r="Y44" s="1">
+        <v>10</v>
       </c>
       <c r="AH44" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI44" s="1">
         <v>22.5</v>
       </c>
-      <c r="AP44" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="AR44" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AZ44" s="1">
-        <v>52</v>
-      </c>
-      <c r="BB44" s="1">
-        <v>44</v>
-      </c>
-      <c r="CG44" s="1">
-        <v>52</v>
-      </c>
-      <c r="CI44" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:87" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="AS44" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="C45" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="D45" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>17.5</v>
       </c>
       <c r="AH45" s="1">
-        <v>20</v>
+        <v>17.5</v>
+      </c>
+      <c r="AQ45" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="AR45" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="46" spans="1:87" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="46" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="D46" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="N46" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG46" s="1">
-        <v>17.5</v>
+        <v>356</v>
       </c>
       <c r="AH46" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="AQ46" s="1" t="s">
-        <v>366</v>
+        <v>32.5</v>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="47" spans="1:87" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>274</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="D47" s="1" t="s">
         <v>363</v>
       </c>
+      <c r="E47" s="1">
+        <v>20</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="N47" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="O47" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>35</v>
       </c>
       <c r="AH47" s="1">
-        <v>32.5</v>
+        <v>30</v>
+      </c>
+      <c r="AI47" s="1">
+        <v>45</v>
+      </c>
+      <c r="AP47" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="AR47" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:87" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+      <c r="AS47" s="1">
+        <v>85</v>
+      </c>
+      <c r="AZ47" s="1">
+        <v>100</v>
+      </c>
+      <c r="BA47" s="1">
+        <v>100</v>
+      </c>
+      <c r="BB47" s="1">
+        <v>100</v>
+      </c>
+      <c r="BC47" s="1">
+        <v>56</v>
+      </c>
+      <c r="BJ47" s="1">
+        <v>44</v>
+      </c>
+      <c r="CG47" s="1">
+        <v>100</v>
+      </c>
+      <c r="CH47" s="1">
+        <v>100</v>
+      </c>
+      <c r="CI47" s="1">
+        <v>100</v>
+      </c>
+      <c r="CJ47" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="X48" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG48" s="1">
-        <v>35</v>
-      </c>
-      <c r="AH48" s="1">
-        <v>30</v>
-      </c>
-      <c r="AP48" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AQ48" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AR48" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AZ48" s="1">
-        <v>100</v>
-      </c>
-      <c r="BA48" s="1">
-        <v>100</v>
-      </c>
-      <c r="BB48" s="1">
-        <v>100</v>
-      </c>
-      <c r="CG48" s="1">
-        <v>100</v>
-      </c>
-      <c r="CH48" s="1">
-        <v>100</v>
-      </c>
-      <c r="CI48" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:87" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E49" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O49" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="AI49" s="1">
+        <v>45</v>
+      </c>
+      <c r="AR49" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AS49" s="1">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="50" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="X50" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AH50" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="AR50" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="51" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="52" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E51" s="1">
+        <v>10</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O51" s="1">
+        <v>5</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI51" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="AP51" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AQ51" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AR51" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AS51" s="1">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E52" s="1">
+        <v>20</v>
+      </c>
+      <c r="L52" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="N52" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
+      </c>
+      <c r="O52" s="1">
+        <v>2.5</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>12.5</v>
       </c>
       <c r="AF52" s="1">
         <v>30</v>
       </c>
-      <c r="AG52" s="1">
+      <c r="AH52" s="1">
         <v>32.5</v>
       </c>
-      <c r="AH52" s="1">
-        <v>30</v>
+      <c r="AI52" s="1">
+        <v>45</v>
       </c>
       <c r="AP52" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AQ52" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AR52" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="53" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="AS52" s="1">
+        <v>80</v>
+      </c>
+      <c r="BB52" s="1">
+        <v>88</v>
+      </c>
+      <c r="BC52" s="1">
+        <v>52</v>
+      </c>
+      <c r="BJ52" s="1">
+        <v>32</v>
+      </c>
+      <c r="CI52" s="1">
+        <v>88</v>
+      </c>
+      <c r="CJ52" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E53" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="N53" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="O53" s="1">
+        <v>5</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>7.5</v>
       </c>
       <c r="AF53" s="1">
         <v>30</v>
       </c>
+      <c r="AG53" s="1">
+        <v>35</v>
+      </c>
       <c r="AH53" s="1">
-        <v>32.5</v>
+        <v>17.5</v>
+      </c>
+      <c r="AI53" s="1">
+        <v>45</v>
       </c>
       <c r="AP53" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
+      </c>
+      <c r="AQ53" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="AR53" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="BB53" s="1">
-        <v>88</v>
-      </c>
-      <c r="CI53" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:87" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="AS53" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF54" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG54" s="1">
-        <v>35</v>
-      </c>
-      <c r="AH54" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="AP54" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AQ54" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AR54" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="55" spans="1:87" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="56" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="C55" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG55" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="AQ55" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>282</v>
       </c>
+      <c r="B56" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="C56" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E56" s="1">
+        <v>20</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>356</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O56" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>22.5</v>
       </c>
       <c r="AG56" s="1">
-        <v>22.5</v>
+        <v>35</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="AI56" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="AP56" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="AQ56" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="57" spans="1:87" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="AR56" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AS56" s="1">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E57" s="1">
+        <v>20</v>
+      </c>
+      <c r="M57" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="N57" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
+      </c>
+      <c r="O57" s="1">
+        <v>5</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AF57" s="1">
-        <v>22.5</v>
+        <v>358</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>12.5</v>
       </c>
       <c r="AG57" s="1">
-        <v>35</v>
+        <v>42.5</v>
       </c>
       <c r="AH57" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="AP57" s="1" t="s">
-        <v>384</v>
+        <v>40</v>
+      </c>
+      <c r="AI57" s="1">
+        <v>50</v>
       </c>
       <c r="AQ57" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AR57" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="58" spans="1:87" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="AS57" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="BA57" s="1">
+        <v>56</v>
+      </c>
+      <c r="BB57" s="1">
+        <v>96</v>
+      </c>
+      <c r="BC57" s="1">
+        <v>44</v>
+      </c>
+      <c r="BJ57" s="1">
+        <v>36</v>
+      </c>
+      <c r="CH57" s="1">
+        <v>56</v>
+      </c>
+      <c r="CI57" s="1">
+        <v>96</v>
+      </c>
+      <c r="CJ57" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
+      </c>
+      <c r="E58" s="1">
+        <v>12.5</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
+      </c>
+      <c r="O58" s="1">
+        <v>7.5</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="X58" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>7.5</v>
       </c>
       <c r="AG58" s="1">
-        <v>42.5</v>
-      </c>
-      <c r="AH58" s="1">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="AI58" s="1">
+        <v>20</v>
       </c>
       <c r="AQ58" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AR58" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="BA58" s="1">
-        <v>56</v>
-      </c>
-      <c r="BB58" s="1">
-        <v>96</v>
-      </c>
-      <c r="CH58" s="1">
-        <v>56</v>
-      </c>
-      <c r="CI58" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:87" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="AS58" s="1">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG59" s="1">
-        <v>15</v>
-      </c>
-      <c r="AQ59" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="60" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AI59" s="1">
+        <v>25</v>
+      </c>
+      <c r="AR59" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS59" s="1">
+        <v>25</v>
+      </c>
+      <c r="BB59" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC59" s="1">
+        <v>24</v>
+      </c>
+      <c r="BJ59" s="1">
+        <v>16</v>
+      </c>
+      <c r="CI59" s="1">
+        <v>52</v>
+      </c>
+      <c r="CJ59" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X60" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AH60" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="AR60" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BB60" s="1">
-        <v>52</v>
-      </c>
-      <c r="CI60" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:87" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="62" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="D61" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E61" s="1">
+        <v>10</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O61" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>35</v>
+      </c>
+      <c r="AI61" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="AR61" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AS61" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AH62" s="1">
-        <v>35</v>
+        <v>22.5</v>
       </c>
       <c r="AR62" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:87" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="B63" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="D63" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E63" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O63" s="1">
+        <v>5</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>25</v>
+      </c>
+      <c r="AP63" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ63" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR63" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AS63" s="1">
+        <v>55</v>
+      </c>
+      <c r="AZ63" s="1">
+        <v>52</v>
+      </c>
+      <c r="BA63" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB63" s="1">
+        <v>84</v>
+      </c>
+      <c r="BC63" s="1">
+        <v>56</v>
+      </c>
+      <c r="BJ63" s="1">
+        <v>40</v>
+      </c>
+      <c r="CG63" s="1">
+        <v>52</v>
+      </c>
+      <c r="CH63" s="1">
+        <v>64</v>
+      </c>
+      <c r="CI63" s="1">
+        <v>84</v>
+      </c>
+      <c r="CJ63" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E65" s="1">
+        <v>15</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="N65" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O65" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X65" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="X63" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AH63" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="AR63" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="64" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="X64" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF64" s="1">
+      <c r="Y65" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="AG65" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="AI65" s="1">
         <v>45</v>
       </c>
-      <c r="AG64" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="AH64" s="1">
-        <v>32.5</v>
-      </c>
-      <c r="AP64" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AQ64" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AR64" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AZ64" s="1">
-        <v>52</v>
-      </c>
-      <c r="BA64" s="1">
-        <v>64</v>
-      </c>
-      <c r="BB64" s="1">
-        <v>84</v>
-      </c>
-      <c r="CG64" s="1">
-        <v>52</v>
-      </c>
-      <c r="CH64" s="1">
-        <v>64</v>
-      </c>
-      <c r="CI64" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="AP65" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ65" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AR65" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AS65" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="W66" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AF66" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="AG66" s="1">
-        <v>32.5</v>
+        <v>361</v>
       </c>
       <c r="AH66" s="1">
-        <v>42.5</v>
-      </c>
-      <c r="AP66" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AQ66" s="1" t="s">
-        <v>374</v>
+        <v>22.5</v>
       </c>
       <c r="AR66" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="67" spans="1:87" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X67" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AH67" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="AR67" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="1:87" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="69" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E68" s="1">
+        <v>5</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="O68" s="1">
+        <v>5</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>20</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI68" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AP68" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AQ68" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AR68" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AS68" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="V69" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="W69" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="X69" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF69" s="1">
-        <v>20</v>
-      </c>
-      <c r="AG69" s="1">
-        <v>5</v>
-      </c>
-      <c r="AH69" s="1">
-        <v>20</v>
-      </c>
-      <c r="AP69" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AQ69" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AR69" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="70" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="AZ69" s="1">
+        <v>16</v>
+      </c>
+      <c r="BB69" s="1">
+        <v>28</v>
+      </c>
+      <c r="BC69" s="1">
+        <v>24</v>
+      </c>
+      <c r="BJ69" s="1">
+        <v>4</v>
+      </c>
+      <c r="CG69" s="1">
+        <v>16</v>
+      </c>
+      <c r="CI69" s="1">
+        <v>28</v>
+      </c>
+      <c r="CJ69" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AZ70" s="1">
-        <v>16</v>
-      </c>
-      <c r="BB70" s="1">
-        <v>28</v>
-      </c>
-      <c r="CG70" s="1">
-        <v>16</v>
-      </c>
-      <c r="CI70" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="C70" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E70" s="1">
+        <v>10</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O70" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AG70" s="1">
+        <v>25</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI70" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AQ70" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AR70" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AS70" s="1">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
+      </c>
+      <c r="E71" s="1">
+        <v>12.5</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="W71" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
+      </c>
+      <c r="O71" s="1">
+        <v>2.5</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AG71" s="1">
+        <v>358</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="AI71" s="1">
         <v>25</v>
       </c>
-      <c r="AH71" s="1">
-        <v>25</v>
-      </c>
-      <c r="AQ71" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="AR71" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:87" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="AS71" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="BA71" s="1">
+        <v>28</v>
+      </c>
+      <c r="CH71" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>297</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
+      </c>
+      <c r="E72" s="1">
+        <v>20</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="O72" s="1">
+        <v>2.5</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>7.5</v>
       </c>
       <c r="AH72" s="1">
-        <v>27.5</v>
+        <v>17.5</v>
+      </c>
+      <c r="AI72" s="1">
+        <v>40</v>
       </c>
       <c r="AR72" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="BA72" s="1">
-        <v>28</v>
-      </c>
-      <c r="CH72" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:87" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="AS72" s="1">
+        <v>70</v>
+      </c>
+      <c r="BB72" s="1">
+        <v>76</v>
+      </c>
+      <c r="BC72" s="1">
+        <v>24</v>
+      </c>
+      <c r="BJ72" s="1">
+        <v>24</v>
+      </c>
+      <c r="CI72" s="1">
+        <v>76</v>
+      </c>
+      <c r="CJ72" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>298</v>
       </c>
+      <c r="C73" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="D73" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="X73" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>30</v>
       </c>
       <c r="AH73" s="1">
-        <v>17.5</v>
+        <v>12.5</v>
+      </c>
+      <c r="AQ73" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="AR73" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="BB73" s="1">
-        <v>76</v>
-      </c>
-      <c r="CI73" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:87" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="74" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
+      </c>
+      <c r="E74" s="1">
+        <v>10</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="W74" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
+      </c>
+      <c r="O74" s="1">
+        <v>2.5</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AG74" s="1">
-        <v>30</v>
+        <v>358</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>10</v>
       </c>
       <c r="AH74" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="AQ74" s="1" t="s">
-        <v>383</v>
+        <v>17.5</v>
+      </c>
+      <c r="AI74" s="1">
+        <v>32.5</v>
       </c>
       <c r="AR74" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="75" spans="1:87" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="AS74" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB74" s="1">
+        <v>8</v>
+      </c>
+      <c r="BC74" s="1">
+        <v>16</v>
+      </c>
+      <c r="BJ74" s="1">
+        <v>16</v>
+      </c>
+      <c r="CI74" s="1">
+        <v>8</v>
+      </c>
+      <c r="CJ74" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AH75" s="1">
-        <v>17.5</v>
+        <v>27.5</v>
       </c>
       <c r="AR75" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="BB75" s="1">
+    </row>
+    <row r="76" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E77" s="1">
+        <v>15</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O77" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AH77" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI77" s="1">
+        <v>35</v>
+      </c>
+      <c r="AR77" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AS77" s="1">
+        <v>65</v>
+      </c>
+      <c r="BC77" s="1">
+        <v>24</v>
+      </c>
+      <c r="BJ77" s="1">
         <v>8</v>
       </c>
-      <c r="CI75" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="CJ77" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="X76" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AH76" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="AR76" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="77" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D78" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
+      </c>
+      <c r="E78" s="1">
+        <v>7.5</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="O78" s="1">
+        <v>7.5</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>10</v>
       </c>
       <c r="AH78" s="1">
-        <v>25</v>
+        <v>17.5</v>
+      </c>
+      <c r="AI78" s="1">
+        <v>30</v>
       </c>
       <c r="AR78" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="79" spans="1:87" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="AS78" s="1">
+        <v>55</v>
+      </c>
+      <c r="AZ78" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA78" s="1">
+        <v>28</v>
+      </c>
+      <c r="BB78" s="1">
+        <v>16</v>
+      </c>
+      <c r="CG78" s="1">
+        <v>4</v>
+      </c>
+      <c r="CH78" s="1">
+        <v>28</v>
+      </c>
+      <c r="CI78" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>302</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
+      </c>
+      <c r="E79" s="1">
+        <v>7.5</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
+      </c>
+      <c r="O79" s="1">
+        <v>2.5</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>5</v>
       </c>
       <c r="AH79" s="1">
-        <v>17.5</v>
+        <v>20</v>
+      </c>
+      <c r="AI79" s="1">
+        <v>30</v>
       </c>
       <c r="AR79" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AZ79" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA79" s="1">
-        <v>28</v>
-      </c>
-      <c r="BB79" s="1">
-        <v>16</v>
-      </c>
-      <c r="CG79" s="1">
-        <v>4</v>
-      </c>
-      <c r="CH79" s="1">
-        <v>28</v>
-      </c>
-      <c r="CI79" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:87" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="AS79" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>303</v>
       </c>
+      <c r="B80" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="D80" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="E80" s="1">
+        <v>15</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="O80" s="1">
+        <v>5</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="X80" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF80" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG80" s="1">
+        <v>40</v>
       </c>
       <c r="AH80" s="1">
-        <v>20</v>
+        <v>32.5</v>
+      </c>
+      <c r="AI80" s="1">
+        <v>35</v>
+      </c>
+      <c r="AP80" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ80" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="AR80" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="81" spans="1:87" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="AS80" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E81" s="1">
+        <v>10</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N81" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>359</v>
+      <c r="O81" s="1">
+        <v>2.5</v>
       </c>
       <c r="V81" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="W81" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="X81" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>7.5</v>
       </c>
       <c r="AF81" s="1">
-        <v>40</v>
-      </c>
-      <c r="AG81" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AH81" s="1">
-        <v>32.5</v>
+        <v>20</v>
+      </c>
+      <c r="AI81" s="1">
+        <v>27.5</v>
       </c>
       <c r="AP81" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AQ81" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="AR81" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="82" spans="1:87" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="AS81" s="1">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
+      </c>
+      <c r="E82" s="1">
+        <v>17.5</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="O82" s="1">
+        <v>5</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="Y82" s="1">
+        <v>5</v>
       </c>
       <c r="AF82" s="1">
         <v>30</v>
       </c>
       <c r="AH82" s="1">
-        <v>20</v>
+        <v>22.5</v>
+      </c>
+      <c r="AI82" s="1">
+        <v>27.5</v>
       </c>
       <c r="AP82" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AR82" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="83" spans="1:87" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="AS82" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH83" s="1">
+        <v>15</v>
+      </c>
+      <c r="AR83" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="84" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E84" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N84" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="L83" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V83" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="X83" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF83" s="1">
-        <v>30</v>
-      </c>
-      <c r="AH83" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="AP83" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AR83" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="84" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="N84" s="1" t="s">
+      <c r="O84" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W84" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="X84" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="X84" s="1" t="s">
-        <v>359</v>
+      <c r="Y84" s="1">
+        <v>10</v>
+      </c>
+      <c r="AG84" s="1">
+        <v>27.5</v>
       </c>
       <c r="AH84" s="1">
-        <v>15</v>
+        <v>32.5</v>
+      </c>
+      <c r="AI84" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="AQ84" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="AR84" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="85" spans="1:87" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="AS84" s="1">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>362</v>
+      <c r="E85" s="1">
+        <v>15</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="W85" s="1" t="s">
-        <v>359</v>
+      <c r="O85" s="1">
+        <v>2.5</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AG85" s="1">
+        <v>358</v>
+      </c>
+      <c r="Y85" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AH85" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="AI85" s="1">
         <v>27.5</v>
       </c>
-      <c r="AH85" s="1">
-        <v>32.5</v>
-      </c>
-      <c r="AQ85" s="1" t="s">
+      <c r="AR85" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AR85" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="86" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="AS85" s="1">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X86" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AH86" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="AR86" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="87" spans="1:87" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="88" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="V87" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF87" s="1">
+        <v>25</v>
+      </c>
+      <c r="AH87" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="AP87" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AR87" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="88" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="D88" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E88" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O88" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="X88" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="L88" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="V88" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="X88" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF88" s="1">
+      <c r="Y88" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AI88" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR88" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AS88" s="1">
         <v>25</v>
       </c>
-      <c r="AH88" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="AP88" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="AR88" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="89" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="BC88" s="1">
+        <v>12</v>
+      </c>
+      <c r="BJ88" s="1">
+        <v>20</v>
+      </c>
+      <c r="CJ88" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>311</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>359</v>
       </c>
+      <c r="E89" s="1">
+        <v>10</v>
+      </c>
       <c r="N89" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="O89" s="1">
+        <v>7.5</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
+      </c>
+      <c r="Y89" s="1">
+        <v>7.5</v>
       </c>
       <c r="AH89" s="1">
-        <v>7.5</v>
+        <v>27.5</v>
+      </c>
+      <c r="AI89" s="1">
+        <v>30</v>
       </c>
       <c r="AR89" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="90" spans="1:87" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="AS89" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>312</v>
       </c>
+      <c r="B90" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="D90" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
+      </c>
+      <c r="E90" s="1">
+        <v>15</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="N90" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O90" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V90" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="W90" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y90" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF90" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG90" s="1">
+        <v>45</v>
+      </c>
+      <c r="AH90" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI90" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP90" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AQ90" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR90" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AS90" s="1">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O91" s="1">
+        <v>5</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y91" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH91" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI91" s="1">
+        <v>10</v>
+      </c>
+      <c r="AR91" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AS91" s="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E92" s="1">
+        <v>15</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O92" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V92" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="X90" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AH90" s="1">
+      <c r="W92" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y92" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AF92" s="1">
         <v>27.5</v>
       </c>
-      <c r="AR90" s="1" t="s">
+      <c r="AG92" s="1">
+        <v>35</v>
+      </c>
+      <c r="AH92" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI92" s="1">
+        <v>30</v>
+      </c>
+      <c r="AP92" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="91" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="V91" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="W91" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="X91" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AF91" s="1">
-        <v>40</v>
-      </c>
-      <c r="AG91" s="1">
-        <v>45</v>
-      </c>
-      <c r="AH91" s="1">
-        <v>25</v>
-      </c>
-      <c r="AP91" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AQ91" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AR91" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="92" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X92" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AH92" s="1">
-        <v>20</v>
+      <c r="AQ92" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="AR92" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="93" spans="1:87" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="AS92" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E93" s="1">
+        <v>15</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M93" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="N93" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O93" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V93" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="V93" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="W93" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="X93" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
+      </c>
+      <c r="Y93" s="1">
+        <v>12.5</v>
       </c>
       <c r="AF93" s="1">
-        <v>27.5</v>
+        <v>20</v>
       </c>
       <c r="AG93" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH93" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI93" s="1">
         <v>35</v>
       </c>
-      <c r="AH93" s="1">
-        <v>30</v>
-      </c>
       <c r="AP93" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AQ93" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AR93" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="94" spans="1:87" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="AS93" s="1">
+        <v>65</v>
+      </c>
+      <c r="AZ93" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA93" s="1">
+        <v>20</v>
+      </c>
+      <c r="BB93" s="1">
+        <v>28</v>
+      </c>
+      <c r="BC93" s="1">
+        <v>48</v>
+      </c>
+      <c r="BJ93" s="1">
+        <v>16</v>
+      </c>
+      <c r="CG93" s="1">
+        <v>4</v>
+      </c>
+      <c r="CH93" s="1">
+        <v>20</v>
+      </c>
+      <c r="CI93" s="1">
+        <v>28</v>
+      </c>
+      <c r="CJ93" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="D94" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
+      </c>
+      <c r="E94" s="1">
+        <v>10</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="V94" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="W94" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="O94" s="1">
+        <v>2.5</v>
       </c>
       <c r="X94" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AF94" s="1">
-        <v>20</v>
-      </c>
-      <c r="AG94" s="1">
-        <v>30</v>
+        <v>358</v>
+      </c>
+      <c r="Y94" s="1">
+        <v>10</v>
       </c>
       <c r="AH94" s="1">
-        <v>20</v>
-      </c>
-      <c r="AP94" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="AQ94" s="1" t="s">
+        <v>32.5</v>
+      </c>
+      <c r="AI94" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="AR94" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AR94" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AZ94" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA94" s="1">
-        <v>20</v>
-      </c>
-      <c r="BB94" s="1">
-        <v>28</v>
-      </c>
-      <c r="CG94" s="1">
-        <v>4</v>
-      </c>
-      <c r="CH94" s="1">
-        <v>20</v>
-      </c>
-      <c r="CI94" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="AS94" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X95" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AH95" s="1">
-        <v>32.5</v>
-      </c>
-      <c r="AR95" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="96" spans="1:87" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="97" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="E96" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y96" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AI96" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="AS96" s="1">
+        <v>50</v>
+      </c>
+      <c r="BC96" s="1">
+        <v>44</v>
+      </c>
+      <c r="BJ96" s="1">
+        <v>32</v>
+      </c>
+      <c r="CJ96" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="98" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="B97" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E97" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O97" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="V97" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="X97" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y97" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF97" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH97" s="1">
+        <v>35</v>
+      </c>
+      <c r="AI97" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="AP97" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR97" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AS97" s="1">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>364</v>
+      <c r="C98" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="D98" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M98" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="N98" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="N98" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V98" s="1" t="s">
-        <v>363</v>
+      <c r="W98" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AF98" s="1">
-        <v>30</v>
+        <v>360</v>
+      </c>
+      <c r="AG98" s="1">
+        <v>17.5</v>
       </c>
       <c r="AH98" s="1">
-        <v>35</v>
-      </c>
-      <c r="AP98" s="1" t="s">
-        <v>382</v>
+        <v>7.5</v>
+      </c>
+      <c r="AQ98" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="AR98" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="99" spans="1:87" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="99" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="B99" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="C99" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>363</v>
+      <c r="E99" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
+      </c>
+      <c r="O99" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V99" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="Y99" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF99" s="1">
+        <v>22.5</v>
       </c>
       <c r="AG99" s="1">
-        <v>17.5</v>
+        <v>32.5</v>
       </c>
       <c r="AH99" s="1">
-        <v>7.5</v>
+        <v>25</v>
+      </c>
+      <c r="AI99" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="AP99" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="AQ99" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AR99" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="100" spans="1:87" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="AS99" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="AZ99" s="1">
+        <v>28</v>
+      </c>
+      <c r="BA99" s="1">
+        <v>20</v>
+      </c>
+      <c r="BB99" s="1">
+        <v>44</v>
+      </c>
+      <c r="BC99" s="1">
+        <v>32</v>
+      </c>
+      <c r="BJ99" s="1">
+        <v>24</v>
+      </c>
+      <c r="CG99" s="1">
+        <v>28</v>
+      </c>
+      <c r="CH99" s="1">
+        <v>20</v>
+      </c>
+      <c r="CI99" s="1">
+        <v>44</v>
+      </c>
+      <c r="CJ99" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="D100" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="E100" s="1">
+        <v>22.5</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V100" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O100" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="X100" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="W100" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X100" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF100" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="AG100" s="1">
+      <c r="Y100" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AH100" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI100" s="1">
         <v>32.5</v>
       </c>
-      <c r="AH100" s="1">
-        <v>25</v>
-      </c>
-      <c r="AP100" s="1" t="s">
+      <c r="AR100" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AQ100" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AR100" s="1" t="s">
-        <v>373</v>
+      <c r="AS100" s="1">
+        <v>75</v>
       </c>
       <c r="AZ100" s="1">
-        <v>28</v>
-      </c>
-      <c r="BA100" s="1">
+        <v>32</v>
+      </c>
+      <c r="BC100" s="1">
         <v>20</v>
       </c>
-      <c r="BB100" s="1">
-        <v>44</v>
+      <c r="BJ100" s="1">
+        <v>12</v>
       </c>
       <c r="CG100" s="1">
-        <v>28</v>
-      </c>
-      <c r="CH100" s="1">
-        <v>20</v>
-      </c>
-      <c r="CI100" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="101" spans="1:87" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="CJ100" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X101" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AH101" s="1">
-        <v>30</v>
-      </c>
-      <c r="AR101" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AZ101" s="1">
-        <v>32</v>
-      </c>
-      <c r="CG101" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102" spans="1:87" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="103" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="B102" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E102" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O102" s="1">
+        <v>5</v>
+      </c>
+      <c r="V102" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="W102" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X102" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y102" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AF102" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG102" s="1">
+        <v>45</v>
+      </c>
+      <c r="AH102" s="1">
+        <v>35</v>
+      </c>
+      <c r="AI102" s="1">
+        <v>50</v>
+      </c>
+      <c r="AP102" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ102" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AR102" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AS102" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
+      </c>
+      <c r="E103" s="1">
+        <v>7.5</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
+      </c>
+      <c r="O103" s="1">
+        <v>7.5</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="X103" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
+      </c>
+      <c r="Y103" s="1">
+        <v>10</v>
       </c>
       <c r="AF103" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AG103" s="1">
-        <v>45</v>
+        <v>22.5</v>
       </c>
       <c r="AH103" s="1">
-        <v>35</v>
+        <v>17.5</v>
+      </c>
+      <c r="AI103" s="1">
+        <v>32.5</v>
       </c>
       <c r="AP103" s="1" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="AQ103" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="AR103" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="104" spans="1:87" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+      <c r="AS103" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="AZ103" s="1">
+        <v>44</v>
+      </c>
+      <c r="BB103" s="1">
+        <v>24</v>
+      </c>
+      <c r="BC103" s="1">
+        <v>12</v>
+      </c>
+      <c r="BJ103" s="1">
+        <v>16</v>
+      </c>
+      <c r="CG103" s="1">
+        <v>44</v>
+      </c>
+      <c r="CI103" s="1">
+        <v>24</v>
+      </c>
+      <c r="CJ103" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>361</v>
@@ -13098,592 +14321,799 @@
       <c r="N104" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="W104" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="X104" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AF104" s="1">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="AG104" s="1">
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH104" s="1">
         <v>17.5</v>
       </c>
-      <c r="AP104" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="AQ104" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AR104" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AR104" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ104" s="1">
-        <v>44</v>
-      </c>
-      <c r="BB104" s="1">
-        <v>24</v>
-      </c>
-      <c r="CG104" s="1">
-        <v>44</v>
-      </c>
-      <c r="CI104" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="105" spans="1:87" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="B105" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="C105" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>359</v>
       </c>
+      <c r="E105" s="1">
+        <v>10</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="M105" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O105" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="V105" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="N105" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="W105" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="X105" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="Y105" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AF105" s="1">
+        <v>27.5</v>
+      </c>
       <c r="AG105" s="1">
-        <v>7.5</v>
+        <v>35</v>
       </c>
       <c r="AH105" s="1">
-        <v>17.5</v>
+        <v>25</v>
+      </c>
+      <c r="AI105" s="1">
+        <v>35</v>
+      </c>
+      <c r="AP105" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="AQ105" s="1" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="AR105" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="106" spans="1:87" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="AS105" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E106" s="1">
+        <v>5</v>
+      </c>
+      <c r="N106" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="V106" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="W106" s="1" t="s">
-        <v>359</v>
+      <c r="O106" s="1">
+        <v>2.5</v>
       </c>
       <c r="X106" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF106" s="1">
+        <v>358</v>
+      </c>
+      <c r="Y106" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AH106" s="1">
         <v>27.5</v>
       </c>
-      <c r="AG106" s="1">
-        <v>35</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>25</v>
-      </c>
-      <c r="AP106" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AQ106" s="1" t="s">
-        <v>384</v>
+      <c r="AI106" s="1">
+        <v>27.5</v>
       </c>
       <c r="AR106" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="107" spans="1:87" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="AS106" s="1">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="B107" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="D107" s="1" t="s">
         <v>362</v>
       </c>
+      <c r="E107" s="1">
+        <v>5</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="N107" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="O107" s="1">
+        <v>5</v>
+      </c>
+      <c r="V107" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="X107" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>27.5</v>
       </c>
       <c r="AH107" s="1">
-        <v>27.5</v>
+        <v>20</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP107" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="AR107" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="108" spans="1:87" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="AS107" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="L108" s="1" t="s">
+      <c r="N108" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X108" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="N108" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="V108" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="X108" s="1" t="s">
+      <c r="AH108" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AR108" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AF108" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="AH108" s="1">
-        <v>20</v>
-      </c>
-      <c r="AP108" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="AR108" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="109" spans="1:87" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>330</v>
       </c>
+      <c r="B109" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="D109" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
+      </c>
+      <c r="E109" s="1">
+        <v>10</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="N109" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O109" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V109" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="W109" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X109" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="X109" s="1" t="s">
-        <v>362</v>
+      <c r="Y109" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AF109" s="1">
+        <v>15</v>
+      </c>
+      <c r="AG109" s="1">
+        <v>15</v>
       </c>
       <c r="AH109" s="1">
-        <v>7.5</v>
+        <v>12.5</v>
+      </c>
+      <c r="AI109" s="1">
+        <v>25</v>
+      </c>
+      <c r="AP109" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AQ109" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="AR109" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="110" spans="1:87" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+      <c r="AS109" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V110" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="W110" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="X110" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF110" s="1">
-        <v>15</v>
-      </c>
-      <c r="AG110" s="1">
-        <v>15</v>
-      </c>
-      <c r="AH110" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="AP110" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AQ110" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AR110" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="111" spans="1:87" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="112" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="C111" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E111" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O111" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W111" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="X111" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y111" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG111" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="AH111" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="AI111" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="AQ111" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AR111" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AS111" s="1">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="D112" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M112" s="1" t="s">
         <v>362</v>
       </c>
+      <c r="E112" s="1">
+        <v>7.5</v>
+      </c>
       <c r="N112" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="W112" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
+      </c>
+      <c r="O112" s="1">
+        <v>5</v>
       </c>
       <c r="X112" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AG112" s="1">
-        <v>17.5</v>
+        <v>361</v>
+      </c>
+      <c r="Y112" s="1">
+        <v>2.5</v>
       </c>
       <c r="AH112" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="AQ112" s="1" t="s">
-        <v>367</v>
+        <v>10</v>
+      </c>
+      <c r="AI112" s="1">
+        <v>25</v>
       </c>
       <c r="AR112" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="113" spans="1:87" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+      <c r="AS112" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>334</v>
       </c>
+      <c r="B113" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="D113" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
+      </c>
+      <c r="E113" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="O113" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="W113" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="X113" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
+      </c>
+      <c r="Y113" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AF113" s="1">
+        <v>20</v>
+      </c>
+      <c r="AG113" s="1">
+        <v>20</v>
       </c>
       <c r="AH113" s="1">
-        <v>10</v>
+        <v>17.5</v>
+      </c>
+      <c r="AI113" s="1">
+        <v>35</v>
+      </c>
+      <c r="AP113" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AQ113" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="AR113" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="114" spans="1:87" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="AS113" s="1">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V114" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="W114" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="X114" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF114" s="1">
-        <v>20</v>
-      </c>
-      <c r="AG114" s="1">
-        <v>20</v>
-      </c>
-      <c r="AH114" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="AP114" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AQ114" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AR114" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="115" spans="1:87" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="116" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="D115" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E115" s="1">
+        <v>15</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O115" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="X115" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y115" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH115" s="1">
+        <v>10</v>
+      </c>
+      <c r="AI115" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AR115" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AS115" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X116" s="1" t="s">
+      <c r="B116" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E116" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M116" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AH116" s="1">
-        <v>10</v>
-      </c>
-      <c r="AR116" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="117" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="O116" s="1">
+        <v>5</v>
+      </c>
+      <c r="V116" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="W116" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y116" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF116" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="AG116" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="AI116" s="1">
+        <v>25</v>
+      </c>
+      <c r="AP116" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AQ116" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AS116" s="1">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="V117" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="W117" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF117" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="AG117" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="AP117" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AQ117" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="118" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="N117" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X117" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AH117" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="AR117" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="BB117" s="1">
+        <v>100</v>
+      </c>
+      <c r="BC117" s="1">
+        <v>48</v>
+      </c>
+      <c r="BJ117" s="1">
+        <v>40</v>
+      </c>
+      <c r="CI117" s="1">
+        <v>100</v>
+      </c>
+      <c r="CJ117" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>339</v>
       </c>
+      <c r="B118" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="D118" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E118" s="1">
+        <v>15</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O118" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="V118" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="W118" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="X118" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y118" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF118" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG118" s="1">
+        <v>45</v>
+      </c>
+      <c r="AH118" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI118" s="1">
+        <v>45</v>
+      </c>
+      <c r="AP118" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ118" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AR118" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AS118" s="1">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BB119" s="1">
+        <v>88</v>
+      </c>
+      <c r="BC119" s="1">
+        <v>40</v>
+      </c>
+      <c r="BJ119" s="1">
+        <v>36</v>
+      </c>
+      <c r="CI119" s="1">
+        <v>88</v>
+      </c>
+      <c r="CJ119" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E120" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="X120" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="N118" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="X118" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AH118" s="1">
-        <v>42.5</v>
-      </c>
-      <c r="AR118" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="BB118" s="1">
-        <v>100</v>
-      </c>
-      <c r="CI118" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="Y120" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AH120" s="1">
+        <v>15</v>
+      </c>
+      <c r="AI120" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR120" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AS120" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="L119" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="M119" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V119" s="1" t="s">
+      <c r="D121" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E121" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="L121" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="W119" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="X119" s="1" t="s">
+      <c r="M121" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AF119" s="1">
-        <v>40</v>
-      </c>
-      <c r="AG119" s="1">
-        <v>45</v>
-      </c>
-      <c r="AH119" s="1">
+      <c r="N121" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O121" s="1">
+        <v>5</v>
+      </c>
+      <c r="V121" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="W121" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="X121" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y121" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AF121" s="1">
         <v>30</v>
       </c>
-      <c r="AP119" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AQ119" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AR119" s="1" t="s">
+      <c r="AG121" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH121" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI121" s="1">
+        <v>25</v>
+      </c>
+      <c r="AP121" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="120" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BB120" s="1">
-        <v>88</v>
-      </c>
-      <c r="CI120" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="121" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X121" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AH121" s="1">
-        <v>15</v>
+      <c r="AQ121" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="AR121" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="122" spans="1:87" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="AS121" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="D122" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
+      </c>
+      <c r="E122" s="1">
+        <v>17.5</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V122" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="W122" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="X122" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF122" s="1">
-        <v>30</v>
+        <v>361</v>
+      </c>
+      <c r="Y122" s="1">
+        <v>10</v>
       </c>
       <c r="AG122" s="1">
         <v>30</v>
       </c>
       <c r="AH122" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="AI122" s="1">
         <v>25</v>
       </c>
-      <c r="AP122" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="AQ122" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="AR122" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="123" spans="1:87" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="AS122" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="AZ122" s="1">
+        <v>48</v>
+      </c>
+      <c r="BB122" s="1">
+        <v>16</v>
+      </c>
+      <c r="BC122" s="1">
+        <v>20</v>
+      </c>
+      <c r="BJ122" s="1">
+        <v>8</v>
+      </c>
+      <c r="CG122" s="1">
+        <v>48</v>
+      </c>
+      <c r="CI122" s="1">
+        <v>16</v>
+      </c>
+      <c r="CJ122" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>342</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>361</v>
@@ -13692,404 +15122,450 @@
         <v>361</v>
       </c>
       <c r="W123" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="X123" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AG123" s="1">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="AH123" s="1">
-        <v>27.5</v>
+        <v>25</v>
       </c>
       <c r="AQ123" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AR123" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AZ123" s="1">
-        <v>48</v>
+        <v>372</v>
       </c>
       <c r="BB123" s="1">
-        <v>16</v>
-      </c>
-      <c r="CG123" s="1">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="CI123" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="1:87" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="D124" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
+      </c>
+      <c r="E124" s="1">
+        <v>22.5</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="W124" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="X124" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG124" s="1">
-        <v>17.5</v>
+        <v>358</v>
+      </c>
+      <c r="Y124" s="1">
+        <v>7.5</v>
       </c>
       <c r="AH124" s="1">
-        <v>25</v>
-      </c>
-      <c r="AQ124" s="1" t="s">
-        <v>367</v>
+        <v>22.5</v>
+      </c>
+      <c r="AI124" s="1">
+        <v>27.5</v>
       </c>
       <c r="AR124" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
+      </c>
+      <c r="AS124" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="BA124" s="1">
+        <v>28</v>
       </c>
       <c r="BB124" s="1">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="CH124" s="1">
+        <v>28</v>
       </c>
       <c r="CI124" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="125" spans="1:87" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>344</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="X125" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AH125" s="1">
-        <v>22.5</v>
+        <v>12.5</v>
       </c>
       <c r="AR125" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="BA125" s="1">
-        <v>28</v>
-      </c>
-      <c r="BB125" s="1">
-        <v>56</v>
-      </c>
-      <c r="CH125" s="1">
-        <v>28</v>
-      </c>
-      <c r="CI125" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="126" spans="1:87" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="126" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>345</v>
       </c>
+      <c r="B126" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="D126" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
+      </c>
+      <c r="E126" s="1">
+        <v>15</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="O126" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V126" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W126" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="X126" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="Y126" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AF126" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG126" s="1">
+        <v>37.5</v>
       </c>
       <c r="AH126" s="1">
-        <v>12.5</v>
+        <v>30</v>
+      </c>
+      <c r="AI126" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="AP126" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AQ126" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="AR126" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="127" spans="1:87" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="AS126" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="AZ126" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA126" s="1">
+        <v>16</v>
+      </c>
+      <c r="CG126" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH126" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="W127" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X127" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG127" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH127" s="1">
+        <v>25</v>
+      </c>
+      <c r="AQ127" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AR127" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="128" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="D128" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N128" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="L127" s="1" t="s">
+      <c r="X128" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="M127" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N127" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V127" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="W127" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="X127" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF127" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG127" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="AH127" s="1">
-        <v>30</v>
-      </c>
-      <c r="AP127" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="AQ127" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AR127" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="AZ127" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA127" s="1">
-        <v>16</v>
-      </c>
-      <c r="CG127" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH127" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="W128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="X128" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG128" s="1">
-        <v>30</v>
-      </c>
       <c r="AH128" s="1">
-        <v>25</v>
-      </c>
-      <c r="AQ128" s="1" t="s">
-        <v>377</v>
+        <v>17.5</v>
       </c>
       <c r="AR128" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="129" spans="1:87" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="129" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>347</v>
       </c>
+      <c r="C129" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="D129" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
+      </c>
+      <c r="E129" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
+      </c>
+      <c r="O129" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="W129" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="X129" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
+      </c>
+      <c r="Y129" s="1">
+        <v>10</v>
+      </c>
+      <c r="AG129" s="1">
+        <v>30</v>
       </c>
       <c r="AH129" s="1">
-        <v>17.5</v>
+        <v>25</v>
+      </c>
+      <c r="AI129" s="1">
+        <v>30</v>
+      </c>
+      <c r="AQ129" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="AR129" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="130" spans="1:87" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="AS129" s="1">
+        <v>70</v>
+      </c>
+      <c r="AZ129" s="1">
+        <v>40</v>
+      </c>
+      <c r="BA129" s="1">
+        <v>20</v>
+      </c>
+      <c r="BB129" s="1">
+        <v>64</v>
+      </c>
+      <c r="BC129" s="1">
+        <v>40</v>
+      </c>
+      <c r="BJ129" s="1">
+        <v>32</v>
+      </c>
+      <c r="CG129" s="1">
+        <v>40</v>
+      </c>
+      <c r="CH129" s="1">
+        <v>20</v>
+      </c>
+      <c r="CI129" s="1">
+        <v>64</v>
+      </c>
+      <c r="CJ129" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X130" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH130" s="1">
+        <v>10</v>
+      </c>
+      <c r="AR130" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="N130" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="W130" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="X130" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG130" s="1">
-        <v>30</v>
-      </c>
-      <c r="AH130" s="1">
-        <v>25</v>
-      </c>
-      <c r="AQ130" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AR130" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AZ130" s="1">
-        <v>40</v>
-      </c>
-      <c r="BA130" s="1">
-        <v>20</v>
-      </c>
-      <c r="BB130" s="1">
-        <v>64</v>
-      </c>
-      <c r="CG130" s="1">
-        <v>40</v>
-      </c>
-      <c r="CH130" s="1">
-        <v>20</v>
-      </c>
-      <c r="CI130" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="131" spans="1:87" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>349</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="E131" s="1">
+        <v>5</v>
       </c>
       <c r="N131" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="O131" s="1">
+        <v>2.5</v>
+      </c>
       <c r="X131" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="Y131" s="1">
+        <v>2.5</v>
       </c>
       <c r="AH131" s="1">
-        <v>10</v>
+        <v>22.5</v>
+      </c>
+      <c r="AI131" s="1">
+        <v>5</v>
       </c>
       <c r="AR131" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="132" spans="1:87" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="AS131" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="B132" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>359</v>
+      </c>
       <c r="D132" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
+      </c>
+      <c r="E132" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="N132" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O132" s="1">
+        <v>5</v>
+      </c>
+      <c r="V132" s="1" t="s">
         <v>362</v>
       </c>
+      <c r="W132" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="X132" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="Y132" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AF132" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG132" s="1">
+        <v>35</v>
       </c>
       <c r="AH132" s="1">
-        <v>22.5</v>
+        <v>30</v>
+      </c>
+      <c r="AI132" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="AP132" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ132" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="AR132" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="133" spans="1:87" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="AS132" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="BB132" s="1">
+        <v>100</v>
+      </c>
+      <c r="BC132" s="1">
+        <v>52</v>
+      </c>
+      <c r="BJ132" s="1">
+        <v>44</v>
+      </c>
+      <c r="CI132" s="1">
+        <v>100</v>
+      </c>
+      <c r="CJ132" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N133" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="V133" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="W133" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="X133" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF133" s="1">
-        <v>40</v>
-      </c>
-      <c r="AG133" s="1">
-        <v>35</v>
-      </c>
-      <c r="AH133" s="1">
-        <v>30</v>
-      </c>
-      <c r="AP133" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AQ133" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AR133" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="BB133" s="1">
-        <v>100</v>
-      </c>
-      <c r="CI133" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="135" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="134" spans="1:88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:CP1 A3:D133 A2:D2 F2:N2 F3:N133 P2:X2 Z2:AH2 AJ2:AR2 P3:X133 Z3:AH37 AJ3:AR133 AT2:BB2 AT3:BB133 Z43:AH133 AA38:AH42 BK2:CI2 BK3:CI133 CK2:CP2 CK3:CP133" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/src/assets/excel/appData.xlsx
+++ b/src/assets/excel/appData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esang\Documents\work\devel\scboard24\scboard24\src\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pwang/Documents/Work_Space/Proj_Development/webstorm_projects/scboard24/src/assets/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B13EDDF-07AA-43CF-91F2-10D7CBDBD75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0407226D-9724-DA49-BCC8-A971462B8E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="240" windowWidth="25980" windowHeight="20460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1151,7 +1151,7 @@
     <numFmt numFmtId="176" formatCode="#,###;\-#,###;;@"/>
     <numFmt numFmtId="177" formatCode="#,###.0;\-#,###.0;;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1550,12 +1550,12 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="136" width="2.875" customWidth="1"/>
+    <col min="2" max="136" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:136">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:136">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="3" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:136">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="4" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:136">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:136">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:136">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:136">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:136">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3458,27 +3458,27 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:136">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:136">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:136">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:136">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:136">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:136">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:136">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:136">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:136">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:136">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:136">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -4971,27 +4971,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:136">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:136">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:136">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:136">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:136">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:136">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:136">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="27" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:136">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:136">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:136">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:136">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -6484,27 +6484,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:136">
       <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:136">
       <c r="A32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:136">
       <c r="A33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:136">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:136">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="36" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:136">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:136">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:136">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="39" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:136">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:136">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="41" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:136">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -7997,27 +7997,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:136">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:136">
       <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:136">
       <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:136">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:136">
       <c r="A46" t="s">
         <v>180</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:136">
       <c r="A47" t="s">
         <v>181</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="48" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:136">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="49" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:136">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:136">
       <c r="A50" t="s">
         <v>184</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:136">
       <c r="A51" t="s">
         <v>185</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="52" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:136">
       <c r="A52" t="s">
         <v>186</v>
       </c>
@@ -9510,22 +9510,22 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="53" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:136">
       <c r="A53" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:136">
       <c r="A54" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:136">
       <c r="A55" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:136">
       <c r="A56" t="s">
         <v>190</v>
       </c>
@@ -9541,50 +9541,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CP104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD28" sqref="AD28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="5" width="8.875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="8.875" style="4" customWidth="1"/>
-    <col min="8" max="9" width="8.875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="8.875" style="2"/>
-    <col min="12" max="15" width="8.875" style="2" customWidth="1"/>
-    <col min="16" max="17" width="8.875" style="4" customWidth="1"/>
-    <col min="18" max="19" width="8.875" style="2" customWidth="1"/>
-    <col min="20" max="21" width="8.875" style="2"/>
-    <col min="22" max="25" width="8.875" style="2" customWidth="1"/>
-    <col min="26" max="27" width="8.875" style="4" customWidth="1"/>
-    <col min="28" max="29" width="8.875" style="2" customWidth="1"/>
-    <col min="30" max="31" width="8.875" style="2"/>
-    <col min="32" max="35" width="8.875" style="2" customWidth="1"/>
-    <col min="36" max="36" width="8.875" style="4" customWidth="1"/>
-    <col min="37" max="39" width="8.875" style="2" customWidth="1"/>
-    <col min="40" max="41" width="8.875" style="2"/>
-    <col min="42" max="45" width="8.875" style="2" customWidth="1"/>
-    <col min="46" max="46" width="8.875" style="4" customWidth="1"/>
-    <col min="47" max="49" width="8.875" style="2" customWidth="1"/>
-    <col min="50" max="52" width="8.875" style="2"/>
-    <col min="53" max="59" width="8.875" style="2" customWidth="1"/>
-    <col min="60" max="60" width="8.875" style="2"/>
-    <col min="61" max="66" width="8.875" style="2" customWidth="1"/>
-    <col min="67" max="68" width="8.875" style="2"/>
-    <col min="69" max="72" width="8.875" style="2" customWidth="1"/>
-    <col min="73" max="74" width="8.875" style="2"/>
-    <col min="75" max="77" width="8.875" style="2" customWidth="1"/>
-    <col min="78" max="80" width="8.875" style="2"/>
-    <col min="81" max="81" width="8.875" style="2" customWidth="1"/>
-    <col min="82" max="85" width="8.875" style="2"/>
-    <col min="86" max="90" width="8.875" style="2" customWidth="1"/>
-    <col min="91" max="91" width="10.375" style="2" customWidth="1"/>
-    <col min="92" max="92" width="8.875" style="2" customWidth="1"/>
-    <col min="93" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="5" width="8.83203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" style="2"/>
+    <col min="12" max="15" width="8.83203125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="8.83203125" style="4" customWidth="1"/>
+    <col min="18" max="19" width="8.83203125" style="2" customWidth="1"/>
+    <col min="20" max="21" width="8.83203125" style="2"/>
+    <col min="22" max="25" width="8.83203125" style="2" customWidth="1"/>
+    <col min="26" max="27" width="8.83203125" style="4" customWidth="1"/>
+    <col min="28" max="29" width="8.83203125" style="2" customWidth="1"/>
+    <col min="30" max="31" width="8.83203125" style="2"/>
+    <col min="32" max="35" width="8.83203125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="8.83203125" style="4" customWidth="1"/>
+    <col min="37" max="39" width="8.83203125" style="2" customWidth="1"/>
+    <col min="40" max="41" width="8.83203125" style="2"/>
+    <col min="42" max="45" width="8.83203125" style="2" customWidth="1"/>
+    <col min="46" max="46" width="8.83203125" style="4" customWidth="1"/>
+    <col min="47" max="49" width="8.83203125" style="2" customWidth="1"/>
+    <col min="50" max="52" width="8.83203125" style="2"/>
+    <col min="53" max="59" width="8.83203125" style="2" customWidth="1"/>
+    <col min="60" max="60" width="8.83203125" style="2"/>
+    <col min="61" max="66" width="8.83203125" style="2" customWidth="1"/>
+    <col min="67" max="68" width="8.83203125" style="2"/>
+    <col min="69" max="72" width="8.83203125" style="2" customWidth="1"/>
+    <col min="73" max="74" width="8.83203125" style="2"/>
+    <col min="75" max="77" width="8.83203125" style="2" customWidth="1"/>
+    <col min="78" max="80" width="8.83203125" style="2"/>
+    <col min="81" max="81" width="8.83203125" style="2" customWidth="1"/>
+    <col min="82" max="85" width="8.83203125" style="2"/>
+    <col min="86" max="90" width="8.83203125" style="2" customWidth="1"/>
+    <col min="91" max="91" width="10.33203125" style="2" customWidth="1"/>
+    <col min="92" max="92" width="8.83203125" style="2" customWidth="1"/>
+    <col min="93" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:94">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:94">
       <c r="A2" s="1" t="s">
         <v>234</v>
       </c>
@@ -9909,7 +9909,7 @@
       <c r="X2" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Y2" s="1"/>
+      <c r="Y2" s="4"/>
       <c r="Z2" s="4">
         <v>0</v>
       </c>
@@ -10000,7 +10000,7 @@
       <c r="CO2" s="1"/>
       <c r="CP2" s="1"/>
     </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:94">
       <c r="A3" s="1" t="s">
         <v>235</v>
       </c>
@@ -10033,7 +10033,7 @@
       <c r="X3" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="4">
         <v>5</v>
       </c>
       <c r="Z3" s="4">
@@ -10139,7 +10139,7 @@
       <c r="CO3" s="1"/>
       <c r="CP3" s="1"/>
     </row>
-    <row r="4" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:94">
       <c r="A4" s="1" t="s">
         <v>236</v>
       </c>
@@ -10196,7 +10196,7 @@
       <c r="X4" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="4">
         <v>10</v>
       </c>
       <c r="Z4" s="4">
@@ -10297,7 +10297,7 @@
       <c r="CO4" s="1"/>
       <c r="CP4" s="1"/>
     </row>
-    <row r="5" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:94">
       <c r="A5" s="1" t="s">
         <v>237</v>
       </c>
@@ -10346,7 +10346,7 @@
       <c r="X5" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="4">
         <v>12.5</v>
       </c>
       <c r="Z5" s="4">
@@ -10443,7 +10443,7 @@
       <c r="CO5" s="1"/>
       <c r="CP5" s="1"/>
     </row>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:94">
       <c r="A6" s="1" t="s">
         <v>238</v>
       </c>
@@ -10472,7 +10472,7 @@
       <c r="X6" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Y6" s="1"/>
+      <c r="Y6" s="4"/>
       <c r="Z6" s="4">
         <v>0</v>
       </c>
@@ -10552,7 +10552,7 @@
       <c r="CO6" s="1"/>
       <c r="CP6" s="1"/>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:94">
       <c r="A7" s="1" t="s">
         <v>362</v>
       </c>
@@ -10600,7 +10600,7 @@
       <c r="X7" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="4">
         <v>5</v>
       </c>
       <c r="Z7" s="4">
@@ -10723,7 +10723,7 @@
       <c r="CO7" s="1"/>
       <c r="CP7" s="1"/>
     </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:94">
       <c r="A8" s="1" t="s">
         <v>239</v>
       </c>
@@ -10780,7 +10780,7 @@
       <c r="X8" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8" s="4">
         <v>5</v>
       </c>
       <c r="Z8" s="4">
@@ -10881,7 +10881,7 @@
       <c r="CO8" s="1"/>
       <c r="CP8" s="1"/>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:94">
       <c r="A9" s="1" t="s">
         <v>240</v>
       </c>
@@ -10930,7 +10930,7 @@
       <c r="X9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9" s="4">
         <v>10</v>
       </c>
       <c r="Z9" s="4">
@@ -11059,7 +11059,7 @@
       <c r="CO9" s="1"/>
       <c r="CP9" s="1"/>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:94">
       <c r="A10" s="1" t="s">
         <v>241</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>334</v>
       </c>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1">
+      <c r="Y10" s="4">
         <v>2.5</v>
       </c>
       <c r="Z10" s="4">
@@ -11206,7 +11206,7 @@
       <c r="CO10" s="1"/>
       <c r="CP10" s="1"/>
     </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:94">
       <c r="A11" s="1" t="s">
         <v>242</v>
       </c>
@@ -11257,7 +11257,7 @@
       <c r="X11" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11" s="4">
         <v>2.5</v>
       </c>
       <c r="Z11" s="4">
@@ -11382,7 +11382,7 @@
       <c r="CO11" s="1"/>
       <c r="CP11" s="1"/>
     </row>
-    <row r="12" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:94">
       <c r="A12" s="1" t="s">
         <v>243</v>
       </c>
@@ -11439,7 +11439,7 @@
       <c r="X12" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12" s="4">
         <v>7.5</v>
       </c>
       <c r="Z12" s="4">
@@ -11576,7 +11576,7 @@
       <c r="CO12" s="1"/>
       <c r="CP12" s="1"/>
     </row>
-    <row r="13" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:94">
       <c r="A13" s="1" t="s">
         <v>244</v>
       </c>
@@ -11627,7 +11627,7 @@
       <c r="X13" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y13" s="4">
         <v>7.5</v>
       </c>
       <c r="Z13" s="4">
@@ -11724,7 +11724,7 @@
       <c r="CO13" s="1"/>
       <c r="CP13" s="1"/>
     </row>
-    <row r="14" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:94">
       <c r="A14" s="1" t="s">
         <v>245</v>
       </c>
@@ -11779,7 +11779,7 @@
       <c r="X14" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14" s="4">
         <v>5</v>
       </c>
       <c r="Z14" s="4">
@@ -11880,7 +11880,7 @@
       <c r="CO14" s="1"/>
       <c r="CP14" s="1"/>
     </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:94">
       <c r="A15" s="1" t="s">
         <v>246</v>
       </c>
@@ -11933,7 +11933,7 @@
       <c r="X15" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="4"/>
       <c r="Z15" s="4">
         <v>5</v>
       </c>
@@ -12028,7 +12028,7 @@
       <c r="CO15" s="1"/>
       <c r="CP15" s="1"/>
     </row>
-    <row r="16" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:94">
       <c r="A16" s="1" t="s">
         <v>247</v>
       </c>
@@ -12085,7 +12085,7 @@
       <c r="X16" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16" s="4">
         <v>2.5</v>
       </c>
       <c r="Z16" s="4">
@@ -12222,7 +12222,7 @@
       <c r="CO16" s="1"/>
       <c r="CP16" s="1"/>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:94">
       <c r="A17" s="1" t="s">
         <v>248</v>
       </c>
@@ -12273,7 +12273,7 @@
       <c r="X17" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17" s="4">
         <v>5</v>
       </c>
       <c r="Z17" s="4">
@@ -12370,7 +12370,7 @@
       <c r="CO17" s="1"/>
       <c r="CP17" s="1"/>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:94">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -12415,7 +12415,7 @@
       <c r="X18" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18" s="4">
         <v>2.5</v>
       </c>
       <c r="Z18" s="4">
@@ -12536,7 +12536,7 @@
       <c r="CO18" s="1"/>
       <c r="CP18" s="1"/>
     </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:94">
       <c r="A19" s="1" t="s">
         <v>249</v>
       </c>
@@ -12579,7 +12579,7 @@
       <c r="X19" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y19" s="4">
         <v>5</v>
       </c>
       <c r="Z19" s="4">
@@ -12672,7 +12672,7 @@
       <c r="CO19" s="1"/>
       <c r="CP19" s="1"/>
     </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:94">
       <c r="A20" s="1" t="s">
         <v>250</v>
       </c>
@@ -12723,7 +12723,7 @@
       <c r="X20" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="4">
         <v>7.5</v>
       </c>
       <c r="Z20" s="4">
@@ -12820,7 +12820,7 @@
       <c r="CO20" s="1"/>
       <c r="CP20" s="1"/>
     </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:94">
       <c r="A21" s="1" t="s">
         <v>251</v>
       </c>
@@ -12859,7 +12859,7 @@
       <c r="X21" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21" s="4">
         <v>5</v>
       </c>
       <c r="Z21" s="4">
@@ -12967,7 +12967,7 @@
       <c r="CO21" s="1"/>
       <c r="CP21" s="1"/>
     </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:94">
       <c r="A22" s="1" t="s">
         <v>252</v>
       </c>
@@ -13012,7 +13012,7 @@
       <c r="X22" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y22" s="4">
         <v>2.5</v>
       </c>
       <c r="Z22" s="4">
@@ -13102,7 +13102,7 @@
       <c r="CO22" s="1"/>
       <c r="CP22" s="1"/>
     </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:94">
       <c r="A23" s="1" t="s">
         <v>253</v>
       </c>
@@ -13156,7 +13156,7 @@
       <c r="X23" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y23" s="4">
         <v>7.5</v>
       </c>
       <c r="Z23" s="4">
@@ -13257,7 +13257,7 @@
       <c r="CO23" s="1"/>
       <c r="CP23" s="1"/>
     </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:94">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
@@ -13302,7 +13302,7 @@
       <c r="X24" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Y24" s="4">
         <v>7.5</v>
       </c>
       <c r="Z24" s="4">
@@ -13396,7 +13396,7 @@
       <c r="CO24" s="1"/>
       <c r="CP24" s="1"/>
     </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:94">
       <c r="A25" s="1" t="s">
         <v>254</v>
       </c>
@@ -13447,7 +13447,7 @@
       <c r="X25" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y25" s="4">
         <v>7.5</v>
       </c>
       <c r="Z25" s="4">
@@ -13551,7 +13551,7 @@
       <c r="CO25" s="1"/>
       <c r="CP25" s="1"/>
     </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:94">
       <c r="A26" s="1" t="s">
         <v>255</v>
       </c>
@@ -13600,7 +13600,7 @@
       <c r="X26" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Y26" s="4">
         <v>5</v>
       </c>
       <c r="Z26" s="4">
@@ -13697,7 +13697,7 @@
       <c r="CO26" s="1"/>
       <c r="CP26" s="1"/>
     </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:94">
       <c r="A27" s="1" t="s">
         <v>256</v>
       </c>
@@ -13742,7 +13742,7 @@
       <c r="X27" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Y27" s="4">
         <v>7.5</v>
       </c>
       <c r="Z27" s="4">
@@ -13832,7 +13832,7 @@
       <c r="CO27" s="1"/>
       <c r="CP27" s="1"/>
     </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:94">
       <c r="A28" s="1" t="s">
         <v>257</v>
       </c>
@@ -13883,7 +13883,7 @@
       <c r="X28" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Y28" s="4">
         <v>10</v>
       </c>
       <c r="Z28" s="4">
@@ -13996,7 +13996,7 @@
       <c r="CO28" s="1"/>
       <c r="CP28" s="1"/>
     </row>
-    <row r="29" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:94">
       <c r="A29" s="1" t="s">
         <v>258</v>
       </c>
@@ -14037,7 +14037,7 @@
       <c r="X29" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y29" s="1"/>
+      <c r="Y29" s="4"/>
       <c r="Z29" s="4">
         <v>2.5</v>
       </c>
@@ -14124,7 +14124,7 @@
       <c r="CO29" s="1"/>
       <c r="CP29" s="1"/>
     </row>
-    <row r="30" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:94">
       <c r="A30" s="1" t="s">
         <v>259</v>
       </c>
@@ -14163,7 +14163,7 @@
       <c r="X30" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Y30" s="4">
         <v>12.5</v>
       </c>
       <c r="Z30" s="4">
@@ -14271,7 +14271,7 @@
       <c r="CO30" s="1"/>
       <c r="CP30" s="1"/>
     </row>
-    <row r="31" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:94">
       <c r="A31" s="1" t="s">
         <v>260</v>
       </c>
@@ -14300,7 +14300,7 @@
       <c r="X31" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y31" s="1"/>
+      <c r="Y31" s="4"/>
       <c r="Z31" s="4">
         <v>0</v>
       </c>
@@ -14377,7 +14377,7 @@
       <c r="CO31" s="1"/>
       <c r="CP31" s="1"/>
     </row>
-    <row r="32" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:94">
       <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
@@ -14406,7 +14406,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
+      <c r="Y32" s="4"/>
       <c r="Z32" s="4">
         <v>2.5</v>
       </c>
@@ -14482,7 +14482,7 @@
       <c r="CO32" s="1"/>
       <c r="CP32" s="1"/>
     </row>
-    <row r="33" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:94">
       <c r="A33" s="1" t="s">
         <v>261</v>
       </c>
@@ -14505,7 +14505,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
+      <c r="Y33" s="4"/>
       <c r="Z33" s="4">
         <v>0</v>
       </c>
@@ -14582,7 +14582,7 @@
       <c r="CO33" s="1"/>
       <c r="CP33" s="1"/>
     </row>
-    <row r="34" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:94">
       <c r="A34" s="1" t="s">
         <v>262</v>
       </c>
@@ -14627,7 +14627,7 @@
       <c r="X34" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="Y34" s="4">
         <v>2.5</v>
       </c>
       <c r="Z34" s="4">
@@ -14749,7 +14749,7 @@
       <c r="CO34" s="1"/>
       <c r="CP34" s="1"/>
     </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:94">
       <c r="A35" s="1" t="s">
         <v>263</v>
       </c>
@@ -14784,7 +14784,7 @@
       <c r="X35" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y35" s="1"/>
+      <c r="Y35" s="4"/>
       <c r="Z35" s="4">
         <v>0</v>
       </c>
@@ -14865,7 +14865,7 @@
       <c r="CO35" s="1"/>
       <c r="CP35" s="1"/>
     </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:94">
       <c r="A36" s="1" t="s">
         <v>264</v>
       </c>
@@ -14922,7 +14922,7 @@
       <c r="X36" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="Y36" s="4">
         <v>12.5</v>
       </c>
       <c r="Z36" s="4">
@@ -15059,7 +15059,7 @@
       <c r="CO36" s="1"/>
       <c r="CP36" s="1"/>
     </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:94">
       <c r="A37" s="1" t="s">
         <v>265</v>
       </c>
@@ -15116,7 +15116,7 @@
       <c r="X37" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="Y37" s="4">
         <v>10</v>
       </c>
       <c r="Z37" s="4">
@@ -15217,7 +15217,7 @@
       <c r="CO37" s="1"/>
       <c r="CP37" s="1"/>
     </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:94">
       <c r="A38" s="1" t="s">
         <v>266</v>
       </c>
@@ -15262,7 +15262,7 @@
       <c r="X38" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="4">
         <v>12.5</v>
       </c>
       <c r="Z38" s="4">
@@ -15370,7 +15370,7 @@
       <c r="CO38" s="1"/>
       <c r="CP38" s="1"/>
     </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:94">
       <c r="A39" s="1" t="s">
         <v>267</v>
       </c>
@@ -15427,7 +15427,7 @@
       <c r="X39" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Y39" s="4">
         <v>7.5</v>
       </c>
       <c r="Z39" s="4">
@@ -15528,7 +15528,7 @@
       <c r="CO39" s="1"/>
       <c r="CP39" s="1"/>
     </row>
-    <row r="40" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:94">
       <c r="A40" s="1" t="s">
         <v>268</v>
       </c>
@@ -15551,7 +15551,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
+      <c r="Y40" s="4"/>
       <c r="Z40" s="4">
         <v>0</v>
       </c>
@@ -15624,7 +15624,7 @@
       <c r="CO40" s="1"/>
       <c r="CP40" s="1"/>
     </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:94">
       <c r="A41" s="1" t="s">
         <v>269</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>335</v>
       </c>
       <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
+      <c r="Y41" s="4"/>
       <c r="Z41" s="4">
         <v>0</v>
       </c>
@@ -15739,7 +15739,7 @@
       <c r="CO41" s="1"/>
       <c r="CP41" s="1"/>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:94">
       <c r="A42" s="1" t="s">
         <v>270</v>
       </c>
@@ -15796,7 +15796,7 @@
       <c r="X42" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Y42" s="1">
+      <c r="Y42" s="4">
         <v>12.5</v>
       </c>
       <c r="Z42" s="4">
@@ -15897,7 +15897,7 @@
       <c r="CO42" s="1"/>
       <c r="CP42" s="1"/>
     </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:94">
       <c r="A43" s="1" t="s">
         <v>271</v>
       </c>
@@ -15948,9 +15948,7 @@
       <c r="X43" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y43" s="1">
-        <v>12.5</v>
-      </c>
+      <c r="Y43" s="4"/>
       <c r="Z43" s="4">
         <v>10</v>
       </c>
@@ -16067,7 +16065,7 @@
       <c r="CO43" s="1"/>
       <c r="CP43" s="1"/>
     </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:94">
       <c r="A44" s="1" t="s">
         <v>272</v>
       </c>
@@ -16100,9 +16098,7 @@
         <v>332</v>
       </c>
       <c r="X44" s="1"/>
-      <c r="Y44" s="1">
-        <v>7.5</v>
-      </c>
+      <c r="Y44" s="4"/>
       <c r="Z44" s="4">
         <v>0</v>
       </c>
@@ -16183,7 +16179,7 @@
       <c r="CO44" s="1"/>
       <c r="CP44" s="1"/>
     </row>
-    <row r="45" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:94">
       <c r="A45" s="1" t="s">
         <v>273</v>
       </c>
@@ -16212,7 +16208,9 @@
       <c r="X45" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y45" s="1"/>
+      <c r="Y45" s="4">
+        <v>0</v>
+      </c>
       <c r="Z45" s="4">
         <v>0</v>
       </c>
@@ -16311,7 +16309,7 @@
       <c r="CO45" s="1"/>
       <c r="CP45" s="1"/>
     </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:94">
       <c r="A46" s="1" t="s">
         <v>274</v>
       </c>
@@ -16350,7 +16348,7 @@
       <c r="X46" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Y46" s="1">
+      <c r="Y46" s="4">
         <v>10</v>
       </c>
       <c r="Z46" s="4">
@@ -16436,7 +16434,7 @@
       <c r="CO46" s="1"/>
       <c r="CP46" s="1"/>
     </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:94">
       <c r="A47" s="1" t="s">
         <v>275</v>
       </c>
@@ -16493,7 +16491,7 @@
       <c r="X47" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y47" s="1">
+      <c r="Y47" s="4">
         <v>7.5</v>
       </c>
       <c r="Z47" s="4">
@@ -16630,7 +16628,7 @@
       <c r="CO47" s="1"/>
       <c r="CP47" s="1"/>
     </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:94">
       <c r="A48" s="1" t="s">
         <v>106</v>
       </c>
@@ -16653,7 +16651,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
+      <c r="Y48" s="4"/>
       <c r="Z48" s="4">
         <v>0</v>
       </c>
@@ -16726,7 +16724,7 @@
       <c r="CO48" s="1"/>
       <c r="CP48" s="1"/>
     </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:94">
       <c r="A49" s="1" t="s">
         <v>276</v>
       </c>
@@ -16783,7 +16781,7 @@
       <c r="X49" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="Y49" s="1">
+      <c r="Y49" s="4">
         <v>7.5</v>
       </c>
       <c r="Z49" s="4">
@@ -16884,7 +16882,7 @@
       <c r="CO49" s="1"/>
       <c r="CP49" s="1"/>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:94">
       <c r="A50" s="1" t="s">
         <v>277</v>
       </c>
@@ -16907,7 +16905,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
+      <c r="Y50" s="4"/>
       <c r="Z50" s="4">
         <v>0</v>
       </c>
@@ -16980,7 +16978,7 @@
       <c r="CO50" s="1"/>
       <c r="CP50" s="1"/>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:94">
       <c r="A51" s="1" t="s">
         <v>278</v>
       </c>
@@ -17031,7 +17029,7 @@
       <c r="X51" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y51" s="1">
+      <c r="Y51" s="4">
         <v>7.5</v>
       </c>
       <c r="Z51" s="4">
@@ -17125,7 +17123,7 @@
       <c r="CO51" s="1"/>
       <c r="CP51" s="1"/>
     </row>
-    <row r="52" spans="1:94" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:94" s="8" customFormat="1">
       <c r="A52" s="6" t="s">
         <v>279</v>
       </c>
@@ -17152,7 +17150,7 @@
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
+      <c r="Y52" s="4"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
       <c r="AB52" s="6"/>
@@ -17255,7 +17253,7 @@
       <c r="CO52" s="6"/>
       <c r="CP52" s="6"/>
     </row>
-    <row r="53" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:94">
       <c r="A53" s="1" t="s">
         <v>280</v>
       </c>
@@ -17294,7 +17292,7 @@
       <c r="X53" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Y53" s="1">
+      <c r="Y53" s="4">
         <v>2.5</v>
       </c>
       <c r="Z53" s="4">
@@ -17381,7 +17379,7 @@
       <c r="CO53" s="1"/>
       <c r="CP53" s="1"/>
     </row>
-    <row r="54" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:94">
       <c r="A54" s="1" t="s">
         <v>281</v>
       </c>
@@ -17420,7 +17418,7 @@
       <c r="X54" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y54" s="1">
+      <c r="Y54" s="4">
         <v>12.5</v>
       </c>
       <c r="Z54" s="4">
@@ -17510,7 +17508,7 @@
       <c r="CO54" s="1"/>
       <c r="CP54" s="1"/>
     </row>
-    <row r="55" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:94">
       <c r="A55" s="1" t="s">
         <v>282</v>
       </c>
@@ -17555,7 +17553,7 @@
       <c r="X55" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y55" s="1">
+      <c r="Y55" s="4">
         <v>7.5</v>
       </c>
       <c r="Z55" s="4">
@@ -17676,7 +17674,7 @@
       <c r="CO55" s="1"/>
       <c r="CP55" s="1"/>
     </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:94">
       <c r="A56" s="1" t="s">
         <v>283</v>
       </c>
@@ -17721,7 +17719,7 @@
       <c r="X56" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y56" s="1">
+      <c r="Y56" s="4">
         <v>10</v>
       </c>
       <c r="Z56" s="4">
@@ -17842,7 +17840,7 @@
       <c r="CO56" s="1"/>
       <c r="CP56" s="1"/>
     </row>
-    <row r="57" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:94">
       <c r="A57" s="1" t="s">
         <v>284</v>
       </c>
@@ -17874,7 +17872,7 @@
       <c r="X57" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y57" s="1"/>
+      <c r="Y57" s="4"/>
       <c r="Z57" s="4">
         <v>0</v>
       </c>
@@ -17954,7 +17952,7 @@
       <c r="CO57" s="1"/>
       <c r="CP57" s="1"/>
     </row>
-    <row r="58" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:94">
       <c r="A58" s="1" t="s">
         <v>120</v>
       </c>
@@ -17980,7 +17978,7 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
+      <c r="Y58" s="4"/>
       <c r="Z58" s="4">
         <v>0</v>
       </c>
@@ -18056,7 +18054,7 @@
       <c r="CO58" s="1"/>
       <c r="CP58" s="1"/>
     </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:94">
       <c r="A59" s="1" t="s">
         <v>122</v>
       </c>
@@ -18101,7 +18099,7 @@
       <c r="X59" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y59" s="1">
+      <c r="Y59" s="4">
         <v>7.5</v>
       </c>
       <c r="Z59" s="4">
@@ -18208,7 +18206,7 @@
       <c r="CO59" s="1"/>
       <c r="CP59" s="1"/>
     </row>
-    <row r="60" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:94">
       <c r="A60" s="1" t="s">
         <v>285</v>
       </c>
@@ -18247,7 +18245,7 @@
       <c r="X60" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y60" s="1">
+      <c r="Y60" s="4">
         <v>10</v>
       </c>
       <c r="Z60" s="4">
@@ -18353,7 +18351,7 @@
       <c r="CO60" s="1"/>
       <c r="CP60" s="1"/>
     </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:94">
       <c r="A61" s="1" t="s">
         <v>286</v>
       </c>
@@ -18392,7 +18390,7 @@
       <c r="X61" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y61" s="1">
+      <c r="Y61" s="4">
         <v>5</v>
       </c>
       <c r="Z61" s="4">
@@ -18478,7 +18476,7 @@
       <c r="CO61" s="1"/>
       <c r="CP61" s="1"/>
     </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:94">
       <c r="A62" s="1" t="s">
         <v>287</v>
       </c>
@@ -18535,7 +18533,7 @@
       <c r="X62" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y62" s="1">
+      <c r="Y62" s="4">
         <v>10</v>
       </c>
       <c r="Z62" s="4">
@@ -18636,7 +18634,7 @@
       <c r="CO62" s="1"/>
       <c r="CP62" s="1"/>
     </row>
-    <row r="63" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:94">
       <c r="A63" s="1" t="s">
         <v>288</v>
       </c>
@@ -18687,7 +18685,7 @@
       <c r="X63" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y63" s="1">
+      <c r="Y63" s="4">
         <v>7.5</v>
       </c>
       <c r="Z63" s="4">
@@ -18784,7 +18782,7 @@
       <c r="CO63" s="1"/>
       <c r="CP63" s="1"/>
     </row>
-    <row r="64" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:94">
       <c r="A64" s="1" t="s">
         <v>289</v>
       </c>
@@ -18835,7 +18833,7 @@
       <c r="X64" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y64" s="1">
+      <c r="Y64" s="4">
         <v>5</v>
       </c>
       <c r="Z64" s="4">
@@ -18932,7 +18930,7 @@
       <c r="CO64" s="1"/>
       <c r="CP64" s="1"/>
     </row>
-    <row r="65" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:94">
       <c r="A65" s="1" t="s">
         <v>290</v>
       </c>
@@ -18983,7 +18981,7 @@
       <c r="X65" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y65" s="1">
+      <c r="Y65" s="4">
         <v>10</v>
       </c>
       <c r="Z65" s="4">
@@ -19080,7 +19078,7 @@
       <c r="CO65" s="1"/>
       <c r="CP65" s="1"/>
     </row>
-    <row r="66" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:94">
       <c r="A66" s="1" t="s">
         <v>291</v>
       </c>
@@ -19125,7 +19123,7 @@
       <c r="X66" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y66" s="1">
+      <c r="Y66" s="4">
         <v>7.5</v>
       </c>
       <c r="Z66" s="4">
@@ -19218,7 +19216,7 @@
       <c r="CO66" s="1"/>
       <c r="CP66" s="1"/>
     </row>
-    <row r="67" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:94">
       <c r="A67" s="1" t="s">
         <v>292</v>
       </c>
@@ -19263,7 +19261,7 @@
       <c r="X67" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y67" s="1">
+      <c r="Y67" s="4">
         <v>5</v>
       </c>
       <c r="Z67" s="4">
@@ -19380,7 +19378,7 @@
       <c r="CO67" s="1"/>
       <c r="CP67" s="1"/>
     </row>
-    <row r="68" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:94">
       <c r="A68" s="1" t="s">
         <v>293</v>
       </c>
@@ -19419,7 +19417,7 @@
       <c r="X68" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y68" s="1">
+      <c r="Y68" s="4">
         <v>7.5</v>
       </c>
       <c r="Z68" s="4">
@@ -19505,7 +19503,7 @@
       <c r="CO68" s="1"/>
       <c r="CP68" s="1"/>
     </row>
-    <row r="69" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:94">
       <c r="A69" s="1" t="s">
         <v>294</v>
       </c>
@@ -19553,7 +19551,7 @@
       <c r="X69" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Y69" s="1">
+      <c r="Y69" s="4">
         <v>10</v>
       </c>
       <c r="Z69" s="4">
@@ -19647,7 +19645,7 @@
       <c r="CO69" s="1"/>
       <c r="CP69" s="1"/>
     </row>
-    <row r="70" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:94">
       <c r="A70" s="1" t="s">
         <v>295</v>
       </c>
@@ -19704,7 +19702,7 @@
       <c r="X70" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y70" s="1">
+      <c r="Y70" s="4">
         <v>2.5</v>
       </c>
       <c r="Z70" s="4">
@@ -19805,7 +19803,7 @@
       <c r="CO70" s="1"/>
       <c r="CP70" s="1"/>
     </row>
-    <row r="71" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:94">
       <c r="A71" s="1" t="s">
         <v>296</v>
       </c>
@@ -19862,7 +19860,7 @@
       <c r="X71" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Y71" s="1">
+      <c r="Y71" s="4">
         <v>12.5</v>
       </c>
       <c r="Z71" s="4">
@@ -19999,7 +19997,7 @@
       <c r="CO71" s="1"/>
       <c r="CP71" s="1"/>
     </row>
-    <row r="72" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:94">
       <c r="A72" s="1" t="s">
         <v>297</v>
       </c>
@@ -20038,7 +20036,7 @@
       <c r="X72" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y72" s="1">
+      <c r="Y72" s="4">
         <v>10</v>
       </c>
       <c r="Z72" s="4">
@@ -20124,7 +20122,7 @@
       <c r="CO72" s="1"/>
       <c r="CP72" s="1"/>
     </row>
-    <row r="73" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:94">
       <c r="A73" s="1" t="s">
         <v>298</v>
       </c>
@@ -20150,7 +20148,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
+      <c r="Y73" s="4"/>
       <c r="Z73" s="4">
         <v>0</v>
       </c>
@@ -20226,7 +20224,7 @@
       <c r="CO73" s="1"/>
       <c r="CP73" s="1"/>
     </row>
-    <row r="74" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:94">
       <c r="A74" s="1" t="s">
         <v>299</v>
       </c>
@@ -20257,7 +20255,7 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
-      <c r="Y74" s="1">
+      <c r="Y74" s="4">
         <v>7.5</v>
       </c>
       <c r="Z74" s="4">
@@ -20353,7 +20351,7 @@
       <c r="CO74" s="1"/>
       <c r="CP74" s="1"/>
     </row>
-    <row r="75" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:94">
       <c r="A75" s="1" t="s">
         <v>300</v>
       </c>
@@ -20398,9 +20396,7 @@
       <c r="X75" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="Y75" s="1">
-        <v>5</v>
-      </c>
+      <c r="Y75" s="4"/>
       <c r="Z75" s="4">
         <v>10</v>
       </c>
@@ -20488,7 +20484,7 @@
       <c r="CO75" s="1"/>
       <c r="CP75" s="1"/>
     </row>
-    <row r="76" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:94">
       <c r="A76" s="1" t="s">
         <v>301</v>
       </c>
@@ -20529,7 +20525,7 @@
       <c r="X76" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Y76" s="1"/>
+      <c r="Y76" s="4"/>
       <c r="Z76" s="4">
         <v>5</v>
       </c>
@@ -20613,7 +20609,7 @@
       <c r="CO76" s="1"/>
       <c r="CP76" s="1"/>
     </row>
-    <row r="77" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:94">
       <c r="A77" s="1" t="s">
         <v>302</v>
       </c>
@@ -20670,7 +20666,7 @@
       <c r="X77" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y77" s="1">
+      <c r="Y77" s="4">
         <v>10</v>
       </c>
       <c r="Z77" s="4">
@@ -20807,7 +20803,7 @@
       <c r="CO77" s="1"/>
       <c r="CP77" s="1"/>
     </row>
-    <row r="78" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:94">
       <c r="A78" s="1" t="s">
         <v>303</v>
       </c>
@@ -20852,7 +20848,7 @@
       <c r="X78" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Y78" s="1">
+      <c r="Y78" s="4">
         <v>7.5</v>
       </c>
       <c r="Z78" s="4">
@@ -20973,7 +20969,7 @@
       <c r="CO78" s="1"/>
       <c r="CP78" s="1"/>
     </row>
-    <row r="79" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:94">
       <c r="A79" s="1" t="s">
         <v>304</v>
       </c>
@@ -21030,7 +21026,7 @@
       <c r="X79" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y79" s="1">
+      <c r="Y79" s="4">
         <v>7.5</v>
       </c>
       <c r="Z79" s="4">
@@ -21131,7 +21127,7 @@
       <c r="CO79" s="1"/>
       <c r="CP79" s="1"/>
     </row>
-    <row r="80" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:94">
       <c r="A80" s="1" t="s">
         <v>305</v>
       </c>
@@ -21182,7 +21178,7 @@
       <c r="X80" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Y80" s="1">
+      <c r="Y80" s="4">
         <v>10</v>
       </c>
       <c r="Z80" s="4">
@@ -21290,7 +21286,7 @@
       <c r="CO80" s="1"/>
       <c r="CP80" s="1"/>
     </row>
-    <row r="81" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:94">
       <c r="A81" s="1" t="s">
         <v>306</v>
       </c>
@@ -21328,7 +21324,7 @@
       <c r="X81" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Y81" s="1"/>
+      <c r="Y81" s="4"/>
       <c r="Z81" s="4">
         <v>0</v>
       </c>
@@ -21412,7 +21408,7 @@
       <c r="CO81" s="1"/>
       <c r="CP81" s="1"/>
     </row>
-    <row r="82" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:94">
       <c r="A82" s="1" t="s">
         <v>307</v>
       </c>
@@ -21469,7 +21465,7 @@
       <c r="X82" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y82" s="1">
+      <c r="Y82" s="4">
         <v>7.5</v>
       </c>
       <c r="Z82" s="4">
@@ -21570,7 +21566,7 @@
       <c r="CO82" s="1"/>
       <c r="CP82" s="1"/>
     </row>
-    <row r="83" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:94">
       <c r="A83" s="1" t="s">
         <v>308</v>
       </c>
@@ -21609,7 +21605,7 @@
       <c r="X83" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y83" s="1">
+      <c r="Y83" s="4">
         <v>7.5</v>
       </c>
       <c r="Z83" s="4">
@@ -21695,7 +21691,7 @@
       <c r="CO83" s="1"/>
       <c r="CP83" s="1"/>
     </row>
-    <row r="84" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:94">
       <c r="A84" s="1" t="s">
         <v>309</v>
       </c>
@@ -21746,7 +21742,7 @@
       <c r="X84" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y84" s="1">
+      <c r="Y84" s="4">
         <v>10</v>
       </c>
       <c r="Z84" s="4">
@@ -21843,7 +21839,7 @@
       <c r="CO84" s="1"/>
       <c r="CP84" s="1"/>
     </row>
-    <row r="85" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:94">
       <c r="A85" s="1" t="s">
         <v>310</v>
       </c>
@@ -21897,7 +21893,7 @@
       <c r="X85" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y85" s="1">
+      <c r="Y85" s="4">
         <v>7.5</v>
       </c>
       <c r="Z85" s="4">
@@ -21998,7 +21994,7 @@
       <c r="CO85" s="1"/>
       <c r="CP85" s="1"/>
     </row>
-    <row r="86" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:94">
       <c r="A86" s="1" t="s">
         <v>311</v>
       </c>
@@ -22024,7 +22020,7 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
-      <c r="Y86" s="1"/>
+      <c r="Y86" s="4"/>
       <c r="Z86" s="4">
         <v>0</v>
       </c>
@@ -22100,7 +22096,7 @@
       <c r="CO86" s="1"/>
       <c r="CP86" s="1"/>
     </row>
-    <row r="87" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:94">
       <c r="A87" s="1" t="s">
         <v>312</v>
       </c>
@@ -22139,7 +22135,7 @@
       <c r="X87" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y87" s="1">
+      <c r="Y87" s="4">
         <v>2.5</v>
       </c>
       <c r="Z87" s="4">
@@ -22225,7 +22221,7 @@
       <c r="CO87" s="1"/>
       <c r="CP87" s="1"/>
     </row>
-    <row r="88" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:94">
       <c r="A88" s="1" t="s">
         <v>313</v>
       </c>
@@ -22282,7 +22278,7 @@
       <c r="X88" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y88" s="1">
+      <c r="Y88" s="4">
         <v>2.5</v>
       </c>
       <c r="Z88" s="4">
@@ -22383,7 +22379,7 @@
       <c r="CO88" s="1"/>
       <c r="CP88" s="1"/>
     </row>
-    <row r="89" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:94">
       <c r="A89" s="1" t="s">
         <v>314</v>
       </c>
@@ -22409,7 +22405,7 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
-      <c r="Y89" s="1"/>
+      <c r="Y89" s="4"/>
       <c r="Z89" s="4">
         <v>0</v>
       </c>
@@ -22485,7 +22481,7 @@
       <c r="CO89" s="1"/>
       <c r="CP89" s="1"/>
     </row>
-    <row r="90" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:94">
       <c r="A90" s="1" t="s">
         <v>315</v>
       </c>
@@ -22524,7 +22520,7 @@
       <c r="X90" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Y90" s="1">
+      <c r="Y90" s="4">
         <v>5</v>
       </c>
       <c r="Z90" s="4">
@@ -22610,7 +22606,7 @@
       <c r="CO90" s="1"/>
       <c r="CP90" s="1"/>
     </row>
-    <row r="91" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:94">
       <c r="A91" s="1" t="s">
         <v>316</v>
       </c>
@@ -22655,7 +22651,7 @@
         <v>335</v>
       </c>
       <c r="X91" s="1"/>
-      <c r="Y91" s="1">
+      <c r="Y91" s="4">
         <v>5</v>
       </c>
       <c r="Z91" s="4">
@@ -22745,7 +22741,7 @@
       <c r="CO91" s="1"/>
       <c r="CP91" s="1"/>
     </row>
-    <row r="92" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:94">
       <c r="A92" s="1" t="s">
         <v>317</v>
       </c>
@@ -22780,7 +22776,7 @@
       <c r="X92" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Y92" s="1"/>
+      <c r="Y92" s="4"/>
       <c r="Z92" s="4">
         <v>2.5</v>
       </c>
@@ -22878,7 +22874,7 @@
       <c r="CO92" s="1"/>
       <c r="CP92" s="1"/>
     </row>
-    <row r="93" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:94">
       <c r="A93" s="1" t="s">
         <v>318</v>
       </c>
@@ -22932,7 +22928,7 @@
       <c r="X93" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y93" s="1">
+      <c r="Y93" s="4">
         <v>10</v>
       </c>
       <c r="Z93" s="4">
@@ -23033,7 +23029,7 @@
       <c r="CO93" s="1"/>
       <c r="CP93" s="1"/>
     </row>
-    <row r="94" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:94">
       <c r="A94" s="1" t="s">
         <v>151</v>
       </c>
@@ -23062,7 +23058,7 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
+      <c r="Y94" s="4"/>
       <c r="AA94" s="4">
         <v>10</v>
       </c>
@@ -23164,7 +23160,7 @@
       <c r="CO94" s="1"/>
       <c r="CP94" s="1"/>
     </row>
-    <row r="95" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:94">
       <c r="A95" s="1" t="s">
         <v>319</v>
       </c>
@@ -23221,7 +23217,7 @@
       <c r="X95" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y95" s="1">
+      <c r="Y95" s="4">
         <v>12.5</v>
       </c>
       <c r="Z95" s="4">
@@ -23322,7 +23318,7 @@
       <c r="CO95" s="1"/>
       <c r="CP95" s="1"/>
     </row>
-    <row r="96" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:94">
       <c r="A96" s="1" t="s">
         <v>320</v>
       </c>
@@ -23365,7 +23361,7 @@
       <c r="X96" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y96" s="1">
+      <c r="Y96" s="4">
         <v>10</v>
       </c>
       <c r="Z96" s="4">
@@ -23469,7 +23465,7 @@
       <c r="CO96" s="1"/>
       <c r="CP96" s="1"/>
     </row>
-    <row r="97" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:94">
       <c r="A97" s="1" t="s">
         <v>321</v>
       </c>
@@ -23510,7 +23506,7 @@
       <c r="X97" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y97" s="1"/>
+      <c r="Y97" s="4"/>
       <c r="Z97" s="4">
         <v>10</v>
       </c>
@@ -23598,7 +23594,7 @@
       <c r="CO97" s="1"/>
       <c r="CP97" s="1"/>
     </row>
-    <row r="98" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:94">
       <c r="A98" s="1" t="s">
         <v>322</v>
       </c>
@@ -23641,7 +23637,7 @@
       <c r="X98" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y98" s="1">
+      <c r="Y98" s="4">
         <v>7.5</v>
       </c>
       <c r="Z98" s="4">
@@ -23742,7 +23738,7 @@
       <c r="CO98" s="1"/>
       <c r="CP98" s="1"/>
     </row>
-    <row r="99" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:94">
       <c r="A99" s="1" t="s">
         <v>323</v>
       </c>
@@ -23799,7 +23795,7 @@
       <c r="X99" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y99" s="1">
+      <c r="Y99" s="4">
         <v>2.5</v>
       </c>
       <c r="Z99" s="4">
@@ -23908,7 +23904,7 @@
       <c r="CO99" s="1"/>
       <c r="CP99" s="1"/>
     </row>
-    <row r="100" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:94">
       <c r="A100" s="1" t="s">
         <v>324</v>
       </c>
@@ -23959,7 +23955,7 @@
       <c r="X100" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y100" s="1">
+      <c r="Y100" s="4">
         <v>10</v>
       </c>
       <c r="Z100" s="4">
@@ -24092,7 +24088,7 @@
       <c r="CO100" s="1"/>
       <c r="CP100" s="1"/>
     </row>
-    <row r="101" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:94">
       <c r="A101" s="1" t="s">
         <v>325</v>
       </c>
@@ -24131,7 +24127,7 @@
       <c r="X101" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y101" s="1">
+      <c r="Y101" s="4">
         <v>2.5</v>
       </c>
       <c r="Z101" s="4">
@@ -24217,7 +24213,7 @@
       <c r="CO101" s="1"/>
       <c r="CP101" s="1"/>
     </row>
-    <row r="102" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:94">
       <c r="A102" s="1" t="s">
         <v>326</v>
       </c>
@@ -24274,7 +24270,7 @@
       <c r="X102" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y102" s="1">
+      <c r="Y102" s="4">
         <v>7.5</v>
       </c>
       <c r="Z102" s="4">
@@ -24403,7 +24399,7 @@
       <c r="CO102" s="1"/>
       <c r="CP102" s="1"/>
     </row>
-    <row r="103" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:94">
       <c r="A103" s="1" t="s">
         <v>327</v>
       </c>
@@ -24429,7 +24425,7 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
-      <c r="Y103" s="1"/>
+      <c r="Y103" s="4"/>
       <c r="Z103" s="4">
         <v>0</v>
       </c>
@@ -24505,7 +24501,7 @@
       <c r="CO103" s="1"/>
       <c r="CP103" s="1"/>
     </row>
-    <row r="104" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:94" s="3" customFormat="1">
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="P104" s="5"/>
